--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_25_23.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_25_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1107980.290957096</v>
+        <v>1098609.745274286</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1759984.410099417</v>
+        <v>1134222.401358594</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10513324.36052305</v>
+        <v>10769757.33220669</v>
       </c>
     </row>
     <row r="11">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>179.049755630705</v>
+        <v>52.83391759428314</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -676,10 +676,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292584</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,22 +712,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -737,7 +737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>166.5331836498695</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -755,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851113</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247737</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734097352</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414548</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -816,13 +816,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -831,7 +831,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -867,25 +867,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>121.8718846072899</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>54.45803047044561</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -895,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>61.31988685654932</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -916,7 +916,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -958,13 +958,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>107.0120291964086</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1053,28 +1053,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>72.08802744677315</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>87.93270968653144</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1107,13 +1107,13 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1135,25 +1135,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>326.9186139322096</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,16 +1183,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>234.3516201411689</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1290,19 +1290,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>72.08802744677315</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>27.7009745690949</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1378,16 +1378,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722596</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534534</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>168.1158122681001</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,19 +1420,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1463,13 +1463,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>134.9994691657081</v>
+        <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851113</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247739</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,16 +1496,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734097636</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>128.1435076414546</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T12" t="n">
-        <v>190.7165703189231</v>
+        <v>188.3046392154443</v>
       </c>
       <c r="U12" t="n">
-        <v>225.7871683969286</v>
+        <v>225.7478006422472</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1527,19 +1527,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004729</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>61.36917500887107</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>34.55787220661633</v>
       </c>
     </row>
     <row r="14">
@@ -1621,10 +1621,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>410.9217256534534</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>168.1158122681001</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,19 +1657,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>83.70251495695349</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1700,13 +1700,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>134.9994691657081</v>
+        <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851113</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247737</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,16 +1733,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734097352</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>128.1435076414546</v>
+        <v>117.0286782364135</v>
       </c>
       <c r="T15" t="n">
-        <v>190.7165703189231</v>
+        <v>188.3046392154443</v>
       </c>
       <c r="U15" t="n">
-        <v>225.7871683969286</v>
+        <v>225.7478006422472</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1764,13 +1764,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1779,13 +1779,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>72.75406055538427</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1821,19 +1821,19 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>111.0026252282088</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695349</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1940,7 +1940,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>157.4432112343175</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>124.3175817853337</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,25 +2052,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2098,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>25.3869320253877</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,25 +2289,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>158.6375170540248</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2335,7 +2335,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2484,7 +2484,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>101.6904320390162</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2526,10 +2526,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>65.31126771337257</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2721,16 +2721,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2772,13 +2772,13 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>106.7599081028604</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>21.31870002049637</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2848,7 +2848,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2961,7 +2961,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>65.31126771337314</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2970,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>43.61939039064417</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3015,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3088,13 +3088,13 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784694</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3192,16 +3192,16 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>6.503724722000931</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3246,16 +3246,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>72.43626975031547</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>75.51692257474035</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>136.6842090841046</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3660,19 +3660,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>133.2123352179366</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>117.1418750285555</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3717,19 +3717,19 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3897,22 +3897,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>66.11850518080828</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
@@ -3951,13 +3951,13 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>181.4405190821811</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4134,25 +4134,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>30.18984604964871</v>
       </c>
       <c r="D46" t="n">
-        <v>124.9008830892932</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1501.213961756484</v>
+        <v>2029.572515263132</v>
       </c>
       <c r="C2" t="n">
-        <v>1320.35562273557</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D2" t="n">
-        <v>1320.35562273557</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E2" t="n">
-        <v>934.5673701373257</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F2" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839473</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>108.5090151927146</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912091</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P2" t="n">
         <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136268</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.33740552049</v>
       </c>
       <c r="U2" t="n">
-        <v>2961.784676410103</v>
+        <v>2755.806928794326</v>
       </c>
       <c r="V2" t="n">
-        <v>2630.721789066532</v>
+        <v>2755.806928794326</v>
       </c>
       <c r="W2" t="n">
-        <v>2277.953133796418</v>
+        <v>2403.038273524212</v>
       </c>
       <c r="X2" t="n">
-        <v>2277.953133796418</v>
+        <v>2029.572515263132</v>
       </c>
       <c r="Y2" t="n">
-        <v>1887.813801820606</v>
+        <v>2029.572515263132</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556939</v>
+        <v>941.5438544811085</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275812</v>
+        <v>767.0908251999815</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.708694614561</v>
+        <v>618.1564155387302</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609105</v>
+        <v>458.9189605332748</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.93668163599</v>
+        <v>312.3844025601598</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686084</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064759</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080138</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986312</v>
+        <v>160.1893859228009</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978978</v>
+        <v>398.4535849031483</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291644</v>
+        <v>765.1517452158139</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513959</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068414</v>
+        <v>1685.951113992585</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486469</v>
+        <v>2096.91239341064</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.964263962572</v>
+        <v>2407.411984886743</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.605821609171</v>
+        <v>2565.053542533343</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201687</v>
+        <v>2564.909189125859</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695167</v>
+        <v>2435.471302619339</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373022</v>
+        <v>2242.828302297194</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507438</v>
+        <v>2014.76045543161</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275695</v>
+        <v>1779.608347199867</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547494</v>
+        <v>1525.370990471665</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.071769341961</v>
+        <v>1317.519490266133</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577007</v>
+        <v>1109.759191501179</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>384.3315924698002</v>
+        <v>235.4482993600903</v>
       </c>
       <c r="C4" t="n">
-        <v>384.3315924698002</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="D4" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="E4" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="F4" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962299</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372935</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596509</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588489</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886967</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068866</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596454</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181863</v>
       </c>
       <c r="R4" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181863</v>
       </c>
       <c r="S4" t="n">
-        <v>729.2011216450114</v>
+        <v>920.8870058181863</v>
       </c>
       <c r="T4" t="n">
-        <v>507.4345062145375</v>
+        <v>920.8870058181863</v>
       </c>
       <c r="U4" t="n">
-        <v>507.4345062145375</v>
+        <v>920.8870058181863</v>
       </c>
       <c r="V4" t="n">
-        <v>384.3315924698002</v>
+        <v>920.8870058181863</v>
       </c>
       <c r="W4" t="n">
-        <v>384.3315924698002</v>
+        <v>865.8788942318776</v>
       </c>
       <c r="X4" t="n">
-        <v>384.3315924698002</v>
+        <v>637.8893433338602</v>
       </c>
       <c r="Y4" t="n">
-        <v>384.3315924698002</v>
+        <v>417.0967641903301</v>
       </c>
     </row>
     <row r="5">
@@ -4543,13 +4543,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1590.416669135309</v>
+        <v>2038.144201386633</v>
       </c>
       <c r="C5" t="n">
-        <v>1590.416669135309</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D5" t="n">
-        <v>1232.150970528558</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E5" t="n">
         <v>1232.150970528558</v>
@@ -4564,55 +4564,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
         <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T5" t="n">
         <v>3009.337405520489</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794325</v>
+        <v>2755.806928794326</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450754</v>
+        <v>2424.744041450755</v>
       </c>
       <c r="W5" t="n">
-        <v>2071.97538618064</v>
+        <v>2424.744041450755</v>
       </c>
       <c r="X5" t="n">
-        <v>1698.50962791956</v>
+        <v>2424.744041450755</v>
       </c>
       <c r="Y5" t="n">
-        <v>1590.416669135309</v>
+        <v>2424.744041450755</v>
       </c>
     </row>
     <row r="6">
@@ -4637,13 +4637,13 @@
         <v>312.3844025601604</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927783</v>
+        <v>176.0213023927784</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064586</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J6" t="n">
         <v>160.1893859228007</v>
@@ -4652,10 +4652,10 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
         <v>1685.951113992584</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>155.3330353074677</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C7" t="n">
-        <v>155.3330353074677</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D7" t="n">
-        <v>155.3330353074677</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E7" t="n">
-        <v>155.3330353074677</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F7" t="n">
-        <v>155.3330353074677</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G7" t="n">
-        <v>155.3330353074677</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H7" t="n">
-        <v>155.3330353074677</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962293</v>
       </c>
       <c r="K7" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372934</v>
       </c>
       <c r="L7" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596507</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588486</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886962</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068856</v>
+        <v>809.015235706886</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596446</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="R7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="S7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="T7" t="n">
-        <v>699.120390387711</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="U7" t="n">
-        <v>410.0175235133546</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="V7" t="n">
-        <v>155.3330353074677</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="W7" t="n">
-        <v>155.3330353074677</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="X7" t="n">
-        <v>155.3330353074677</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="Y7" t="n">
-        <v>155.3330353074677</v>
+        <v>920.8870058181855</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1959.379186075721</v>
+        <v>1891.353293732297</v>
       </c>
       <c r="C8" t="n">
-        <v>1590.416669135309</v>
+        <v>1891.353293732297</v>
       </c>
       <c r="D8" t="n">
-        <v>1232.150970528558</v>
+        <v>1533.087595125546</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>1147.299342527302</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>736.3134377376946</v>
       </c>
       <c r="G8" t="n">
         <v>406.0926155839475</v>
@@ -4801,19 +4801,19 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J8" t="n">
         <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060172</v>
@@ -4822,34 +4822,34 @@
         <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="U8" t="n">
-        <v>3088.887013385769</v>
+        <v>2961.784676410104</v>
       </c>
       <c r="V8" t="n">
-        <v>3088.887013385769</v>
+        <v>2630.721789066533</v>
       </c>
       <c r="W8" t="n">
-        <v>2736.118358115654</v>
+        <v>2277.953133796419</v>
       </c>
       <c r="X8" t="n">
-        <v>2736.118358115654</v>
+        <v>2277.953133796419</v>
       </c>
       <c r="Y8" t="n">
-        <v>2345.979026139843</v>
+        <v>2277.953133796419</v>
       </c>
     </row>
     <row r="9">
@@ -4880,16 +4880,16 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228009</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>479.4537238215122</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C10" t="n">
-        <v>479.4537238215122</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D10" t="n">
-        <v>479.4537238215122</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E10" t="n">
-        <v>331.5406302391191</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F10" t="n">
-        <v>331.5406302391191</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962293</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372934</v>
       </c>
       <c r="L10" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596507</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588486</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886962</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068856</v>
+        <v>809.015235706886</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596446</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="R10" t="n">
-        <v>892.9062234251599</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="S10" t="n">
-        <v>701.2203392519862</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="T10" t="n">
-        <v>479.4537238215122</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="U10" t="n">
-        <v>479.4537238215122</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="V10" t="n">
-        <v>479.4537238215122</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="W10" t="n">
-        <v>479.4537238215122</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="X10" t="n">
-        <v>479.4537238215122</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="Y10" t="n">
-        <v>479.4537238215122</v>
+        <v>920.8870058181855</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2175.400891308161</v>
+        <v>2317.776026551873</v>
       </c>
       <c r="C11" t="n">
-        <v>1806.438374367749</v>
+        <v>1948.813509611461</v>
       </c>
       <c r="D11" t="n">
-        <v>1448.172675760999</v>
+        <v>1590.547811004711</v>
       </c>
       <c r="E11" t="n">
-        <v>1062.384423162754</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>651.3985183731468</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>236.3260682181432</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H11" t="n">
-        <v>66.51211643218349</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218349</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912096</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810562</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329465</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.77673900139</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060172</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.52802693951</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296688</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052372</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.605821609174</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S11" t="n">
-        <v>3325.605821609174</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T11" t="n">
-        <v>3325.605821609174</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U11" t="n">
-        <v>3325.605821609174</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V11" t="n">
-        <v>3325.605821609174</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3325.605821609174</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X11" t="n">
-        <v>2952.140063348094</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y11" t="n">
-        <v>2562.000731372283</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811087</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999817</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387305</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332749</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601599</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G12" t="n">
-        <v>176.021302392778</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064551</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218349</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228009</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031482</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158138</v>
+        <v>738.7889117913851</v>
       </c>
       <c r="M12" t="n">
-        <v>1212.42807043813</v>
+        <v>738.7889117913851</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992583</v>
+        <v>1366.386875345991</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410638</v>
+        <v>1918.296605585278</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886741</v>
+        <v>2341.919755080346</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533341</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125856</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619336</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297192</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431608</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199865</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471663</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.519490266131</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501177</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>66.51211643218349</v>
+        <v>390.823249958218</v>
       </c>
       <c r="C13" t="n">
-        <v>66.51211643218349</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D13" t="n">
-        <v>66.51211643218349</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E13" t="n">
-        <v>66.51211643218349</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F13" t="n">
-        <v>66.51211643218349</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="G13" t="n">
-        <v>66.51211643218349</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="H13" t="n">
-        <v>66.51211643218349</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218349</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J13" t="n">
-        <v>78.334869969623</v>
+        <v>140.7528025687995</v>
       </c>
       <c r="K13" t="n">
-        <v>176.6457242372935</v>
+        <v>296.7657364131321</v>
       </c>
       <c r="L13" t="n">
-        <v>332.3555681596508</v>
+        <v>526.3143760629332</v>
       </c>
       <c r="M13" t="n">
-        <v>499.7880494588487</v>
+        <v>771.5995144936165</v>
       </c>
       <c r="N13" t="n">
-        <v>671.0968864886963</v>
+        <v>1018.909846477608</v>
       </c>
       <c r="O13" t="n">
-        <v>809.0152357068862</v>
+        <v>1227.027877484369</v>
       </c>
       <c r="P13" t="n">
-        <v>907.966238459645</v>
+        <v>1386.046835377027</v>
       </c>
       <c r="Q13" t="n">
-        <v>920.8870058181858</v>
+        <v>1440.555541309952</v>
       </c>
       <c r="R13" t="n">
-        <v>831.0565485757138</v>
+        <v>1440.555541309952</v>
       </c>
       <c r="S13" t="n">
-        <v>639.3706644025402</v>
+        <v>1440.555541309952</v>
       </c>
       <c r="T13" t="n">
-        <v>417.6040489720663</v>
+        <v>1440.555541309952</v>
       </c>
       <c r="U13" t="n">
-        <v>128.5011820977098</v>
+        <v>1151.48031465415</v>
       </c>
       <c r="V13" t="n">
-        <v>66.51211643218349</v>
+        <v>896.795826448263</v>
       </c>
       <c r="W13" t="n">
-        <v>66.51211643218349</v>
+        <v>607.3786564113025</v>
       </c>
       <c r="X13" t="n">
-        <v>66.51211643218349</v>
+        <v>607.3786564113025</v>
       </c>
       <c r="Y13" t="n">
-        <v>66.51211643218349</v>
+        <v>572.4717147884577</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2175.400891308161</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1806.438374367749</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1448.172675760999</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1062.384423162754</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>651.3985183731468</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>236.3260682181432</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>66.51211643218349</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218349</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912092</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810559</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329465</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.77673900139</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060172</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.52802693951</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296689</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052372</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.605821609174</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S14" t="n">
-        <v>3325.605821609174</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>3325.605821609174</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>3325.605821609174</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3325.605821609174</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3325.605821609174</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>2952.140063348094</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
-        <v>2562.000731372283</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811087</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999817</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387305</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332749</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601599</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G15" t="n">
-        <v>176.021302392778</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064548</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218349</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J15" t="n">
-        <v>160.189385922801</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031455</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158112</v>
+        <v>352.5519571452622</v>
       </c>
       <c r="M15" t="n">
-        <v>1212.428070438127</v>
+        <v>949.9304447718139</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992582</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O15" t="n">
-        <v>2096.912393410637</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.41198488674</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.053542533341</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
-        <v>2564.909189125856</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S15" t="n">
-        <v>2435.471302619336</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T15" t="n">
-        <v>2242.828302297192</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431608</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V15" t="n">
-        <v>1779.608347199865</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W15" t="n">
-        <v>1525.370990471663</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.519490266131</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501177</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>920.8870058181863</v>
+        <v>408.925855915485</v>
       </c>
       <c r="C16" t="n">
-        <v>751.9508228902794</v>
+        <v>408.925855915485</v>
       </c>
       <c r="D16" t="n">
-        <v>601.8341834779436</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E16" t="n">
-        <v>453.9210898955505</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F16" t="n">
-        <v>453.9210898955505</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>286.2182532702694</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="H16" t="n">
-        <v>140.0010664881272</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218349</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J16" t="n">
-        <v>78.33486996962303</v>
+        <v>140.7528025687995</v>
       </c>
       <c r="K16" t="n">
-        <v>176.6457242372935</v>
+        <v>296.765736413132</v>
       </c>
       <c r="L16" t="n">
-        <v>332.3555681596509</v>
+        <v>526.3143760629331</v>
       </c>
       <c r="M16" t="n">
-        <v>499.7880494588489</v>
+        <v>771.5995144936164</v>
       </c>
       <c r="N16" t="n">
-        <v>671.0968864886967</v>
+        <v>1018.909846477608</v>
       </c>
       <c r="O16" t="n">
-        <v>809.0152357068866</v>
+        <v>1227.027877484369</v>
       </c>
       <c r="P16" t="n">
-        <v>907.9662384596454</v>
+        <v>1386.046835377027</v>
       </c>
       <c r="Q16" t="n">
-        <v>920.8870058181863</v>
+        <v>1440.555541309952</v>
       </c>
       <c r="R16" t="n">
-        <v>920.8870058181863</v>
+        <v>1440.555541309952</v>
       </c>
       <c r="S16" t="n">
-        <v>920.8870058181863</v>
+        <v>1440.555541309952</v>
       </c>
       <c r="T16" t="n">
-        <v>920.8870058181863</v>
+        <v>1440.555541309952</v>
       </c>
       <c r="U16" t="n">
-        <v>920.8870058181863</v>
+        <v>1151.48031465415</v>
       </c>
       <c r="V16" t="n">
-        <v>920.8870058181863</v>
+        <v>1151.48031465415</v>
       </c>
       <c r="W16" t="n">
-        <v>920.8870058181863</v>
+        <v>1039.356450787272</v>
       </c>
       <c r="X16" t="n">
-        <v>920.8870058181863</v>
+        <v>811.3668998892548</v>
       </c>
       <c r="Y16" t="n">
-        <v>920.8870058181863</v>
+        <v>590.5743207457247</v>
       </c>
     </row>
     <row r="17">
@@ -5497,49 +5497,49 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S17" t="n">
         <v>4606.285157492578</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5588,31 +5588,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>577.388077746847</v>
       </c>
       <c r="L18" t="n">
         <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1072.713683962606</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143764</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5649,40 +5649,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1098.667160263527</v>
+        <v>386.5860772677723</v>
       </c>
       <c r="C19" t="n">
-        <v>929.7309773356195</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232838</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408906</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J19" t="n">
-        <v>140.7528025687996</v>
+        <v>140.7528025687995</v>
       </c>
       <c r="K19" t="n">
-        <v>296.7657364131322</v>
+        <v>296.7657364131321</v>
       </c>
       <c r="L19" t="n">
-        <v>526.3143760629334</v>
+        <v>526.3143760629332</v>
       </c>
       <c r="M19" t="n">
-        <v>771.5995144936169</v>
+        <v>771.5995144936165</v>
       </c>
       <c r="N19" t="n">
         <v>1018.909846477608</v>
@@ -5694,31 +5694,31 @@
         <v>1386.046835377027</v>
       </c>
       <c r="Q19" t="n">
-        <v>1440.555541309953</v>
+        <v>1440.555541309952</v>
       </c>
       <c r="R19" t="n">
-        <v>1440.555541309953</v>
+        <v>1440.555541309952</v>
       </c>
       <c r="S19" t="n">
-        <v>1257.700706964857</v>
+        <v>1440.555541309952</v>
       </c>
       <c r="T19" t="n">
-        <v>1257.700706964857</v>
+        <v>1440.555541309952</v>
       </c>
       <c r="U19" t="n">
-        <v>1257.700706964857</v>
+        <v>1151.48031465415</v>
       </c>
       <c r="V19" t="n">
-        <v>1257.700706964857</v>
+        <v>896.795826448263</v>
       </c>
       <c r="W19" t="n">
-        <v>1257.700706964857</v>
+        <v>607.3786564113025</v>
       </c>
       <c r="X19" t="n">
-        <v>1257.700706964857</v>
+        <v>607.3786564113025</v>
       </c>
       <c r="Y19" t="n">
-        <v>1257.700706964857</v>
+        <v>386.5860772677723</v>
       </c>
     </row>
     <row r="20">
@@ -5734,16 +5734,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
@@ -5755,19 +5755,19 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1098.667160263527</v>
+        <v>266.349976228092</v>
       </c>
       <c r="C22" t="n">
-        <v>929.7309773356195</v>
+        <v>266.349976228092</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232838</v>
+        <v>266.349976228092</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408906</v>
+        <v>266.349976228092</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>119.4600287301817</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5937,25 +5937,25 @@
         <v>1440.555541309953</v>
       </c>
       <c r="S22" t="n">
-        <v>1440.555541309953</v>
+        <v>1257.700706964857</v>
       </c>
       <c r="T22" t="n">
-        <v>1440.555541309953</v>
+        <v>1038.099241987798</v>
       </c>
       <c r="U22" t="n">
-        <v>1440.555541309953</v>
+        <v>749.0240153319962</v>
       </c>
       <c r="V22" t="n">
-        <v>1440.555541309953</v>
+        <v>494.3395271261094</v>
       </c>
       <c r="W22" t="n">
-        <v>1440.555541309953</v>
+        <v>494.3395271261094</v>
       </c>
       <c r="X22" t="n">
-        <v>1440.555541309953</v>
+        <v>266.349976228092</v>
       </c>
       <c r="Y22" t="n">
-        <v>1280.315625093766</v>
+        <v>266.349976228092</v>
       </c>
     </row>
     <row r="23">
@@ -5971,28 +5971,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6071,25 +6071,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,13 +6123,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>93.81666304797187</v>
+        <v>196.5342711681903</v>
       </c>
       <c r="C25" t="n">
-        <v>93.81666304797187</v>
+        <v>196.5342711681903</v>
       </c>
       <c r="D25" t="n">
-        <v>93.81666304797187</v>
+        <v>196.5342711681903</v>
       </c>
       <c r="E25" t="n">
         <v>93.81666304797187</v>
@@ -6174,25 +6174,25 @@
         <v>1440.555541309953</v>
       </c>
       <c r="S25" t="n">
-        <v>1374.584563821698</v>
+        <v>1257.700706964857</v>
       </c>
       <c r="T25" t="n">
-        <v>1154.983098844639</v>
+        <v>1257.700706964857</v>
       </c>
       <c r="U25" t="n">
-        <v>865.9078721888367</v>
+        <v>968.6254803090551</v>
       </c>
       <c r="V25" t="n">
-        <v>611.2233839829498</v>
+        <v>713.9409921031682</v>
       </c>
       <c r="W25" t="n">
-        <v>321.8062139459892</v>
+        <v>424.5238220662076</v>
       </c>
       <c r="X25" t="n">
-        <v>93.81666304797187</v>
+        <v>196.5342711681903</v>
       </c>
       <c r="Y25" t="n">
-        <v>93.81666304797187</v>
+        <v>196.5342711681903</v>
       </c>
     </row>
     <row r="26">
@@ -6217,40 +6217,40 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
         <v>4606.285157492578</v>
@@ -6262,13 +6262,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,10 +6299,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J27" t="n">
         <v>243.4633055756266</v>
@@ -6317,7 +6317,7 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,49 +6360,49 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>412.8694853882145</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C28" t="n">
-        <v>243.9333024603076</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D28" t="n">
-        <v>93.81666304797187</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E28" t="n">
-        <v>93.81666304797187</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F28" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>140.7528025687996</v>
+        <v>140.7528025687997</v>
       </c>
       <c r="K28" t="n">
-        <v>296.7657364131322</v>
+        <v>296.7657364131323</v>
       </c>
       <c r="L28" t="n">
-        <v>526.3143760629334</v>
+        <v>526.3143760629337</v>
       </c>
       <c r="M28" t="n">
-        <v>771.5995144936169</v>
+        <v>771.5995144936172</v>
       </c>
       <c r="N28" t="n">
         <v>1018.909846477608</v>
       </c>
       <c r="O28" t="n">
-        <v>1227.027877484369</v>
+        <v>1227.02787748437</v>
       </c>
       <c r="P28" t="n">
-        <v>1386.046835377027</v>
+        <v>1386.046835377028</v>
       </c>
       <c r="Q28" t="n">
         <v>1440.555541309953</v>
@@ -6420,16 +6420,16 @@
         <v>1440.555541309953</v>
       </c>
       <c r="V28" t="n">
-        <v>1332.717250296962</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="W28" t="n">
-        <v>1043.300080260002</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="X28" t="n">
-        <v>815.3105293619843</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y28" t="n">
-        <v>594.5179502184542</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="29">
@@ -6454,37 +6454,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6499,13 +6499,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6554,13 +6554,13 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1896.176478190824</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>137.8766533415518</v>
+        <v>159.7876405362276</v>
       </c>
       <c r="C31" t="n">
-        <v>137.8766533415518</v>
+        <v>159.7876405362276</v>
       </c>
       <c r="D31" t="n">
-        <v>137.8766533415518</v>
+        <v>159.7876405362276</v>
       </c>
       <c r="E31" t="n">
-        <v>137.8766533415518</v>
+        <v>159.7876405362276</v>
       </c>
       <c r="F31" t="n">
-        <v>137.8766533415518</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>137.8766533415518</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>137.8766533415518</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6645,28 +6645,28 @@
         <v>1440.555541309953</v>
       </c>
       <c r="R31" t="n">
-        <v>1373.509837562356</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="S31" t="n">
-        <v>1190.65500321726</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="T31" t="n">
-        <v>971.0535382402015</v>
+        <v>1220.954076332895</v>
       </c>
       <c r="U31" t="n">
-        <v>681.9783115843993</v>
+        <v>931.8788496770924</v>
       </c>
       <c r="V31" t="n">
-        <v>427.2938233785125</v>
+        <v>677.1943614712055</v>
       </c>
       <c r="W31" t="n">
-        <v>137.8766533415518</v>
+        <v>387.7771914342449</v>
       </c>
       <c r="X31" t="n">
-        <v>137.8766533415518</v>
+        <v>159.7876405362276</v>
       </c>
       <c r="Y31" t="n">
-        <v>137.8766533415518</v>
+        <v>159.7876405362276</v>
       </c>
     </row>
     <row r="32">
@@ -6697,25 +6697,25 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075811</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694708</v>
@@ -6782,16 +6782,16 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>280.8495004245705</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>93.81666304797189</v>
+        <v>414.4721287421144</v>
       </c>
       <c r="C34" t="n">
-        <v>93.81666304797189</v>
+        <v>414.4721287421144</v>
       </c>
       <c r="D34" t="n">
-        <v>93.81666304797189</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E34" t="n">
-        <v>93.81666304797189</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F34" t="n">
-        <v>93.81666304797189</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G34" t="n">
         <v>93.81666304797189</v>
@@ -6894,16 +6894,16 @@
         <v>931.8788496770924</v>
       </c>
       <c r="V34" t="n">
-        <v>677.1943614712055</v>
+        <v>931.8788496770924</v>
       </c>
       <c r="W34" t="n">
-        <v>387.7771914342449</v>
+        <v>642.4616796401317</v>
       </c>
       <c r="X34" t="n">
-        <v>314.609242191502</v>
+        <v>414.4721287421144</v>
       </c>
       <c r="Y34" t="n">
-        <v>93.81666304797189</v>
+        <v>414.4721287421144</v>
       </c>
     </row>
     <row r="35">
@@ -6931,16 +6931,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6949,16 +6949,16 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7010,34 +7010,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L36" t="n">
-        <v>243.4633055756266</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>707.9809641133555</v>
+        <v>818.5130323591247</v>
       </c>
       <c r="C37" t="n">
-        <v>707.9809641133555</v>
+        <v>818.5130323591247</v>
       </c>
       <c r="D37" t="n">
-        <v>707.9809641133555</v>
+        <v>668.396392946789</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408905</v>
+        <v>520.4832993643959</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429802</v>
+        <v>373.5933518664855</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>140.7528025687996</v>
+        <v>140.7528025687997</v>
       </c>
       <c r="K37" t="n">
-        <v>296.7657364131322</v>
+        <v>296.7657364131323</v>
       </c>
       <c r="L37" t="n">
-        <v>526.3143760629334</v>
+        <v>526.3143760629337</v>
       </c>
       <c r="M37" t="n">
-        <v>771.5995144936169</v>
+        <v>771.5995144936172</v>
       </c>
       <c r="N37" t="n">
         <v>1018.909846477608</v>
       </c>
       <c r="O37" t="n">
-        <v>1227.027877484369</v>
+        <v>1227.02787748437</v>
       </c>
       <c r="P37" t="n">
-        <v>1386.046835377027</v>
+        <v>1386.046835377028</v>
       </c>
       <c r="Q37" t="n">
         <v>1440.555541309953</v>
       </c>
       <c r="R37" t="n">
-        <v>1373.509837562355</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="S37" t="n">
-        <v>1190.65500321726</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="T37" t="n">
-        <v>1190.65500321726</v>
+        <v>1220.954076332895</v>
       </c>
       <c r="U37" t="n">
-        <v>1190.65500321726</v>
+        <v>1220.954076332895</v>
       </c>
       <c r="V37" t="n">
-        <v>935.9705150113729</v>
+        <v>1220.954076332895</v>
       </c>
       <c r="W37" t="n">
-        <v>935.9705150113729</v>
+        <v>1220.954076332895</v>
       </c>
       <c r="X37" t="n">
-        <v>707.9809641133555</v>
+        <v>1220.954076332895</v>
       </c>
       <c r="Y37" t="n">
-        <v>707.9809641133555</v>
+        <v>1000.161497189364</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7171,25 +7171,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7207,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7262,16 +7262,16 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1344.266747951538</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1016.58045691144</v>
+        <v>521.049719782364</v>
       </c>
       <c r="C40" t="n">
-        <v>847.6442739835331</v>
+        <v>521.049719782364</v>
       </c>
       <c r="D40" t="n">
-        <v>697.5276345711974</v>
+        <v>521.049719782364</v>
       </c>
       <c r="E40" t="n">
-        <v>549.6145409888043</v>
+        <v>521.049719782364</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G40" t="n">
         <v>235.5284942057738</v>
@@ -7332,25 +7332,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>140.7528025687996</v>
+        <v>140.7528025687997</v>
       </c>
       <c r="K40" t="n">
-        <v>296.7657364131322</v>
+        <v>296.7657364131323</v>
       </c>
       <c r="L40" t="n">
-        <v>526.3143760629334</v>
+        <v>526.3143760629337</v>
       </c>
       <c r="M40" t="n">
-        <v>771.5995144936169</v>
+        <v>771.5995144936172</v>
       </c>
       <c r="N40" t="n">
         <v>1018.909846477608</v>
       </c>
       <c r="O40" t="n">
-        <v>1227.027877484369</v>
+        <v>1227.02787748437</v>
       </c>
       <c r="P40" t="n">
-        <v>1386.046835377027</v>
+        <v>1386.046835377028</v>
       </c>
       <c r="Q40" t="n">
         <v>1440.555541309953</v>
@@ -7365,19 +7365,19 @@
         <v>1440.555541309953</v>
       </c>
       <c r="U40" t="n">
-        <v>1440.555541309953</v>
+        <v>1151.480314654151</v>
       </c>
       <c r="V40" t="n">
-        <v>1440.555541309953</v>
+        <v>1151.480314654151</v>
       </c>
       <c r="W40" t="n">
-        <v>1151.138371272992</v>
+        <v>1151.480314654151</v>
       </c>
       <c r="X40" t="n">
-        <v>1151.138371272992</v>
+        <v>923.4907637561339</v>
       </c>
       <c r="Y40" t="n">
-        <v>1151.138371272992</v>
+        <v>702.6981846126038</v>
       </c>
     </row>
     <row r="41">
@@ -7402,22 +7402,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
         <v>2206.558663014778</v>
@@ -7429,10 +7429,10 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7447,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7484,34 +7484,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K42" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L42" t="n">
-        <v>671.2000270096659</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M42" t="n">
-        <v>1268.578514636218</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N42" t="n">
-        <v>1896.176478190825</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>847.644273983533</v>
+        <v>449.2048105731875</v>
       </c>
       <c r="C43" t="n">
-        <v>847.644273983533</v>
+        <v>449.2048105731875</v>
       </c>
       <c r="D43" t="n">
-        <v>697.5276345711973</v>
+        <v>449.2048105731875</v>
       </c>
       <c r="E43" t="n">
-        <v>549.6145409888042</v>
+        <v>449.2048105731875</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908938</v>
+        <v>302.3148630752771</v>
       </c>
       <c r="G43" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>140.7528025687996</v>
@@ -7599,22 +7599,22 @@
         <v>1440.555541309953</v>
       </c>
       <c r="T43" t="n">
-        <v>1440.555541309953</v>
+        <v>1220.954076332894</v>
       </c>
       <c r="U43" t="n">
-        <v>1440.555541309953</v>
+        <v>931.8788496770917</v>
       </c>
       <c r="V43" t="n">
-        <v>1440.555541309953</v>
+        <v>677.1943614712048</v>
       </c>
       <c r="W43" t="n">
-        <v>1440.555541309953</v>
+        <v>677.1943614712048</v>
       </c>
       <c r="X43" t="n">
-        <v>1212.565990411935</v>
+        <v>449.2048105731875</v>
       </c>
       <c r="Y43" t="n">
-        <v>1029.292738813773</v>
+        <v>449.2048105731875</v>
       </c>
     </row>
     <row r="44">
@@ -7730,10 +7730,10 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>280.8495004245706</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
         <v>1373.553594266881</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>681.9783115843986</v>
+        <v>266.0232881953179</v>
       </c>
       <c r="C46" t="n">
-        <v>681.9783115843986</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="D46" t="n">
-        <v>555.8158034133954</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E46" t="n">
-        <v>407.9027098310023</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0127623330919</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>1440.555541309953</v>
       </c>
       <c r="R46" t="n">
-        <v>1373.509837562355</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="S46" t="n">
-        <v>1190.65500321726</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="T46" t="n">
-        <v>971.0535382402009</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="U46" t="n">
-        <v>681.9783115843986</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="V46" t="n">
-        <v>681.9783115843986</v>
+        <v>1185.871053104066</v>
       </c>
       <c r="W46" t="n">
-        <v>681.9783115843986</v>
+        <v>896.4538830671052</v>
       </c>
       <c r="X46" t="n">
-        <v>681.9783115843986</v>
+        <v>668.4643321690878</v>
       </c>
       <c r="Y46" t="n">
-        <v>681.9783115843986</v>
+        <v>447.6717530255577</v>
       </c>
     </row>
   </sheetData>
@@ -23266,7 +23266,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>2.216893335571513e-12</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23275,10 +23275,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>126.4919521192203</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292587</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,19 +23308,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983806</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>190.7684683149569</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>184.0267811454785</v>
       </c>
     </row>
     <row r="14">
@@ -23512,10 +23512,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>126.4919521192203</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292584</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,19 +23545,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.1877617881758</v>
+        <v>1.84741111297626e-12</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23652,13 +23652,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>23.59835985445379</v>
+        <v>81.26583631856556</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004727</v>
+        <v>66.37524671012171</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>175.5203731083822</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23782,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>1.818989403545856e-12</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>22.38876894761981</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>42.92923931329418</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>140.1372062668812</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,25 +24177,25 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>59.94713629807001</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24372,7 +24372,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>44.74353060755294</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24414,10 +24414,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>115.715018288272</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24609,19 +24609,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -24660,13 +24660,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>145.3777352209676</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>204.3909553685408</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24849,7 +24849,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>80.1097803095581</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -24858,7 +24858,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>37.64644592792135</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -25080,16 +25080,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>142.1117482962114</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -25134,16 +25134,16 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>153.2733856387217</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25204,7 +25204,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>70.91704007182882</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>28.83992920816425</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25548,19 +25548,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>46.61964496400074</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>28.27917299437574</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -25605,19 +25605,19 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25678,7 +25678,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -25785,22 +25785,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>99.40563311146056</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -25839,13 +25839,13 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>37.14413426991374</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26022,25 +26022,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>137.0569750489791</v>
       </c>
       <c r="D46" t="n">
-        <v>23.7145899289192</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26070,28 +26070,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>773246.296816562</v>
+        <v>920300.3688706551</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>773246.2968165621</v>
+        <v>920300.3688706551</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>920300.3688706552</v>
+        <v>920300.3688706551</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>920300.3688706553</v>
+        <v>920300.3688706551</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>920300.3688706552</v>
+        <v>920300.3688706553</v>
       </c>
     </row>
     <row r="11">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>920300.3688706552</v>
+        <v>920300.3688706553</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>920300.3688706552</v>
+        <v>920300.3688706553</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>920300.3688706553</v>
+        <v>920300.3688706552</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>920300.3688706551</v>
+        <v>920300.3688706552</v>
       </c>
     </row>
   </sheetData>
@@ -26313,31 +26313,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>472099.0176719632</v>
+        <v>472099.0176719631</v>
       </c>
       <c r="C2" t="n">
         <v>472099.0176719631</v>
       </c>
       <c r="D2" t="n">
-        <v>472099.0176719632</v>
+        <v>472099.017671963</v>
       </c>
       <c r="E2" t="n">
-        <v>378397.123974062</v>
+        <v>450359.7549792565</v>
       </c>
       <c r="F2" t="n">
-        <v>378397.1239740621</v>
+        <v>450359.7549792566</v>
       </c>
       <c r="G2" t="n">
-        <v>450359.7549792567</v>
+        <v>450359.7549792565</v>
       </c>
       <c r="H2" t="n">
-        <v>450359.7549792567</v>
+        <v>450359.7549792568</v>
       </c>
       <c r="I2" t="n">
-        <v>450359.7549792567</v>
+        <v>450359.7549792566</v>
       </c>
       <c r="J2" t="n">
-        <v>450359.7549792566</v>
+        <v>450359.7549792568</v>
       </c>
       <c r="K2" t="n">
         <v>450359.7549792567</v>
@@ -26349,7 +26349,7 @@
         <v>450359.7549792567</v>
       </c>
       <c r="N2" t="n">
-        <v>450359.7549792567</v>
+        <v>450359.7549792568</v>
       </c>
       <c r="O2" t="n">
         <v>450359.7549792567</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727594</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,40 +26374,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>5.690117177437059e-10</v>
+        <v>325412.4618073545</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>309843.0334598192</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.22694927995326e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972778</v>
       </c>
       <c r="K3" t="n">
-        <v>1.655303094594274e-10</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>85055.02793551156</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>82135.83059545109</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1.074904503184371e-10</v>
       </c>
     </row>
     <row r="4">
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.74410405252</v>
+        <v>93596.7441040524</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.7441040525</v>
+        <v>93596.74410405246</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405252</v>
+        <v>93596.74410405246</v>
       </c>
       <c r="E4" t="n">
-        <v>584.6469890061235</v>
+        <v>761.388208683545</v>
       </c>
       <c r="F4" t="n">
-        <v>584.6469890061235</v>
+        <v>761.3882086835449</v>
       </c>
       <c r="G4" t="n">
         <v>761.3882086835451</v>
@@ -26441,16 +26441,16 @@
         <v>761.3882086835451</v>
       </c>
       <c r="J4" t="n">
-        <v>761.3882086835451</v>
+        <v>761.3882086835454</v>
       </c>
       <c r="K4" t="n">
-        <v>761.3882086835454</v>
+        <v>761.3882086835453</v>
       </c>
       <c r="L4" t="n">
         <v>761.3882086835454</v>
       </c>
       <c r="M4" t="n">
-        <v>761.3882086835451</v>
+        <v>761.3882086835454</v>
       </c>
       <c r="N4" t="n">
         <v>761.3882086835451</v>
@@ -26478,10 +26478,10 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>74306.34056139336</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
-        <v>74306.34056139336</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="G5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1058176.412721075</v>
+        <v>-1058176.412721076</v>
       </c>
       <c r="C6" t="n">
-        <v>270568.3330065173</v>
+        <v>270568.3330065177</v>
       </c>
       <c r="D6" t="n">
-        <v>270568.3330065174</v>
+        <v>270568.3330065172</v>
       </c>
       <c r="E6" t="n">
-        <v>303506.1364236619</v>
+        <v>22118.18980484584</v>
       </c>
       <c r="F6" t="n">
-        <v>303506.1364236624</v>
+        <v>347530.6516122007</v>
       </c>
       <c r="G6" t="n">
-        <v>38632.80348684684</v>
+        <v>347530.6516122003</v>
       </c>
       <c r="H6" t="n">
-        <v>348475.836946666</v>
+        <v>347530.6516122005</v>
       </c>
       <c r="I6" t="n">
-        <v>348475.836946666</v>
+        <v>347530.6516122005</v>
       </c>
       <c r="J6" t="n">
-        <v>130944.6345493884</v>
+        <v>129999.4492149228</v>
       </c>
       <c r="K6" t="n">
-        <v>348475.8369466659</v>
+        <v>347530.6516122005</v>
       </c>
       <c r="L6" t="n">
-        <v>348475.8369466661</v>
+        <v>347530.6516122006</v>
       </c>
       <c r="M6" t="n">
-        <v>348475.8369466662</v>
+        <v>262475.623676689</v>
       </c>
       <c r="N6" t="n">
-        <v>348475.8369466661</v>
+        <v>347530.6516122007</v>
       </c>
       <c r="O6" t="n">
-        <v>266340.0063512149</v>
+        <v>347530.6516122008</v>
       </c>
       <c r="P6" t="n">
-        <v>348475.836946666</v>
+        <v>347530.6516122004</v>
       </c>
     </row>
   </sheetData>
@@ -26737,19 +26737,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="E3" t="n">
-        <v>1089.776700593299</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="F3" t="n">
-        <v>1089.776700593299</v>
+        <v>1367.975500341673</v>
       </c>
       <c r="G3" t="n">
         <v>1367.975500341674</v>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022935</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022935</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26813,7 +26813,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,14 +26968,14 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>278.198799748375</v>
       </c>
       <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
         <v>2.273736754432321e-13</v>
       </c>
-      <c r="G3" t="n">
-        <v>278.1987997483748</v>
-      </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
@@ -26983,10 +26983,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="K3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,22 +27020,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>341.3068326973548</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>341.3068326973548</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022933</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,16 +27044,16 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>341.3068326973546</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>341.3068326973546</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
   </sheetData>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,16 +27266,16 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>341.3068326973548</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>341.3068326973548</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
   </sheetData>
@@ -27378,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>186.2231361403025</v>
+        <v>312.4389741767244</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27432,22 +27432,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27457,7 +27457,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-2.188471626141109e-12</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27536,13 +27536,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27551,13 +27551,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983806</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004727</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>130.2657587165381</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>232.0649678661454</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,16 +27615,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>303.9530049144582</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27678,13 +27678,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>279.225909459645</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27773,28 +27773,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>107.7439527351641</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>8.41971072330665</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,19 +27821,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27855,19 +27855,19 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>84.00311172124384</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27903,16 +27903,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>16.64355181773311</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27921,7 +27921,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28010,19 +28010,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>107.7439527351641</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -28031,7 +28031,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,13 +28058,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>61.23117810095243</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681601</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.8670377284467</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974801</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953991</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003814</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623197</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574999</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095028</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099063</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746417</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781693</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563571</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806958</v>
       </c>
       <c r="T2" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451122</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.350480948934528</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502568</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798533</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752262</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353159</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138799</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233479</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837928</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970253</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.610358400293</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987489</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238319</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898505</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1542136840462216</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,46 +31199,46 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430539</v>
       </c>
       <c r="H4" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742022</v>
       </c>
       <c r="J4" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297391</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702026</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098822</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316434</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883117</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086003</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802171</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895882</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712221</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553038</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112301</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31278,7 +31278,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H5" t="n">
         <v>44.86703772844668</v>
@@ -31287,40 +31287,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T5" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,46 +31357,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q6" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31439,43 +31439,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L7" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780295</v>
@@ -31515,7 +31515,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31524,40 +31524,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,46 +31594,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138789</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q9" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31676,43 +31676,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.3810118616816</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>44.8670377284467</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I11" t="n">
-        <v>168.89895979748</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>371.832905495399</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003813</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623196</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574997</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095027</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099062</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746416</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781692</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R11" t="n">
-        <v>275.198736356357</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806955</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>19.17787942451121</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502567</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>22.63856881798532</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752261</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026439</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353159</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138798</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233477</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837908</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970252</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002929</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987488</v>
+        <v>353.2560498238282</v>
       </c>
       <c r="R12" t="n">
-        <v>145.5365940905542</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238318</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898503</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1542136840462216</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430538</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>17.4721575931188</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742022</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J13" t="n">
-        <v>138.9375967297391</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702025</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>292.1673469098821</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316434</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883116</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086002</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>237.678511880217</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q13" t="n">
-        <v>164.5562817895881</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
-        <v>88.3612387071222</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553037</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112299</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681601</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H14" t="n">
-        <v>44.8670377284467</v>
+        <v>56.32071997135338</v>
       </c>
       <c r="I14" t="n">
-        <v>168.8989597974801</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J14" t="n">
-        <v>371.8329054953991</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003814</v>
+        <v>699.5441750817573</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623197</v>
+        <v>867.8464071162558</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574999</v>
+        <v>965.6463440175671</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095028</v>
+        <v>981.2715114159422</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099063</v>
+        <v>926.5868626460025</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746417</v>
+        <v>790.8204499236505</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781693</v>
+        <v>593.873223366922</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563571</v>
+        <v>345.4516222043724</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806958</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>19.17787942451122</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U14" t="n">
-        <v>0.350480948934528</v>
+        <v>0.4399519197078744</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.344047997502568</v>
+        <v>2.942437868659448</v>
       </c>
       <c r="H15" t="n">
-        <v>22.63856881798533</v>
+        <v>28.41775520521099</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752262</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026439</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>378.512347035313</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138799</v>
+        <v>399.9031616963292</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233479</v>
+        <v>745.5466476862118</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837928</v>
+        <v>765.2790490071782</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970253</v>
+        <v>700.0808204437241</v>
       </c>
       <c r="P15" t="n">
-        <v>447.610358400293</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987489</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.5365940905542</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238319</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898505</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1542136840462216</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430539</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>17.4721575931188</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742022</v>
+        <v>74.18463860869272</v>
       </c>
       <c r="J16" t="n">
-        <v>138.9375967297391</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>228.3171513702026</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L16" t="n">
-        <v>292.1673469098822</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M16" t="n">
-        <v>308.0495024316434</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883117</v>
+        <v>377.4939606106787</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086003</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P16" t="n">
-        <v>237.6785118802171</v>
+        <v>298.3532140417313</v>
       </c>
       <c r="Q16" t="n">
-        <v>164.5562817895882</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712221</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553038</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112301</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,37 +32226,37 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R17" t="n">
         <v>345.4516222043725</v>
@@ -32265,10 +32265,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32314,37 +32314,37 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K18" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N18" t="n">
-        <v>405.6377363145776</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565771</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U18" t="n">
         <v>0.1935814387275954</v>
@@ -32390,28 +32390,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N19" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q19" t="n">
         <v>206.5643005515927</v>
@@ -32420,7 +32420,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32791,28 +32791,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>583.1096135868578</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33028,19 +33028,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33274,16 +33274,16 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>359.7096985496632</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33502,7 +33502,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>175.6052721551105</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473073</v>
@@ -33514,7 +33514,7 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>583.1096135868578</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>322.8964653704906</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
@@ -33976,37 +33976,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>416.4300581532626</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34210,22 +34210,22 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>570.6116741576916</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>734.2678383622665</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
         <v>561.8765786214698</v>
@@ -34234,7 +34234,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34450,13 +34450,13 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>175.6052721551106</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>446.0127311990643</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687128</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554008</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923325</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302272</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129119</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882196</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193722</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037198</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222495</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597725</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609569</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340057</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013295</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004595</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525809</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859627</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127273</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034297</v>
       </c>
       <c r="K4" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966719</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286439</v>
       </c>
       <c r="M4" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840384</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230785</v>
       </c>
       <c r="O4" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567575</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106947</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014231</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N5" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q6" t="n">
         <v>159.2338966127272</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034292</v>
       </c>
       <c r="K7" t="n">
-        <v>99.30389319966704</v>
+        <v>99.3038931996671</v>
       </c>
       <c r="L7" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286438</v>
       </c>
       <c r="M7" t="n">
         <v>169.1237184840382</v>
       </c>
       <c r="N7" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230784</v>
       </c>
       <c r="O7" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567574</v>
       </c>
       <c r="P7" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106939</v>
       </c>
       <c r="Q7" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014223</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,22 +35251,22 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340047</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859626</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034292</v>
       </c>
       <c r="K10" t="n">
-        <v>99.30389319966704</v>
+        <v>99.3038931996671</v>
       </c>
       <c r="L10" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286438</v>
       </c>
       <c r="M10" t="n">
         <v>169.1237184840382</v>
       </c>
       <c r="N10" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230784</v>
       </c>
       <c r="O10" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567574</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106939</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014223</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687127</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554007</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923324</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>538.921115830227</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129117</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882195</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193721</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037197</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222489</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597719</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609569</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340056</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013294</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004575</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525808</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859627</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127273</v>
+        <v>213.2742757378066</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>11.94217529034295</v>
+        <v>47.41024194022999</v>
       </c>
       <c r="K13" t="n">
-        <v>99.30389319966713</v>
+        <v>157.5888220649824</v>
       </c>
       <c r="L13" t="n">
-        <v>157.2826706286438</v>
+        <v>231.867312777577</v>
       </c>
       <c r="M13" t="n">
-        <v>169.1237184840383</v>
+        <v>247.7627660915994</v>
       </c>
       <c r="N13" t="n">
-        <v>173.0392293230784</v>
+        <v>249.8084161454456</v>
       </c>
       <c r="O13" t="n">
-        <v>139.3114638567574</v>
+        <v>210.2202333401628</v>
       </c>
       <c r="P13" t="n">
-        <v>99.95050783106942</v>
+        <v>160.6252099925838</v>
       </c>
       <c r="Q13" t="n">
-        <v>13.05128016014226</v>
+        <v>55.05929892214687</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1.539690236317199</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687128</v>
+        <v>285.7087110396418</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554008</v>
+        <v>479.4543240367768</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923325</v>
+        <v>632.0799921462685</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302272</v>
+        <v>735.3001107902944</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129119</v>
+        <v>751.8584478193513</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882196</v>
+        <v>696.4886512243157</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193722</v>
+        <v>559.5874541683809</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037198</v>
+        <v>371.5675334924725</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222495</v>
+        <v>129.8660843902403</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597725</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609541</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340057</v>
+        <v>261.348781916455</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013295</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004595</v>
+        <v>633.9373369238449</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525809</v>
+        <v>557.4845759992796</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859627</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127273</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>11.94217529034297</v>
+        <v>47.41024194022997</v>
       </c>
       <c r="K16" t="n">
-        <v>99.30389319966719</v>
+        <v>157.5888220649823</v>
       </c>
       <c r="L16" t="n">
-        <v>157.2826706286439</v>
+        <v>231.8673127775769</v>
       </c>
       <c r="M16" t="n">
-        <v>169.1237184840384</v>
+        <v>247.7627660915993</v>
       </c>
       <c r="N16" t="n">
-        <v>173.0392293230785</v>
+        <v>249.8084161454455</v>
       </c>
       <c r="O16" t="n">
-        <v>139.3114638567575</v>
+        <v>210.2202333401628</v>
       </c>
       <c r="P16" t="n">
-        <v>99.95050783106947</v>
+        <v>160.6252099925837</v>
       </c>
       <c r="Q16" t="n">
-        <v>13.05128016014231</v>
+        <v>55.05929892214681</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,31 +35880,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L17" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902404</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N18" t="n">
-        <v>274.2960242312443</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121327</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>47.41024194023002</v>
+        <v>47.41024194022999</v>
       </c>
       <c r="K19" t="n">
         <v>157.5888220649824</v>
@@ -36050,19 +36050,19 @@
         <v>231.867312777577</v>
       </c>
       <c r="M19" t="n">
-        <v>247.7627660915995</v>
+        <v>247.7627660915994</v>
       </c>
       <c r="N19" t="n">
         <v>249.8084161454456</v>
       </c>
       <c r="O19" t="n">
-        <v>210.220233340163</v>
+        <v>210.2202333401628</v>
       </c>
       <c r="P19" t="n">
         <v>160.6252099925838</v>
       </c>
       <c r="Q19" t="n">
-        <v>55.05929892214689</v>
+        <v>55.05929892214687</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36439,28 +36439,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>440.9755796648395</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36679,16 +36679,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>47.41024194023002</v>
+        <v>47.41024194023008</v>
       </c>
       <c r="K28" t="n">
-        <v>157.5888220649824</v>
+        <v>157.5888220649825</v>
       </c>
       <c r="L28" t="n">
-        <v>231.867312777577</v>
+        <v>231.8673127775771</v>
       </c>
       <c r="M28" t="n">
         <v>247.7627660915995</v>
       </c>
       <c r="N28" t="n">
-        <v>249.8084161454456</v>
+        <v>249.8084161454457</v>
       </c>
       <c r="O28" t="n">
         <v>210.220233340163</v>
       </c>
       <c r="P28" t="n">
-        <v>160.6252099925838</v>
+        <v>160.6252099925839</v>
       </c>
       <c r="Q28" t="n">
-        <v>55.05929892214689</v>
+        <v>55.05929892214692</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36922,16 +36922,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>228.3679864663299</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37150,7 +37150,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>37.76383318075146</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>500.3288951674331</v>
@@ -37162,7 +37162,7 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,31 +37384,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>440.9755796648395</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>47.41024194023002</v>
+        <v>47.41024194023008</v>
       </c>
       <c r="K37" t="n">
-        <v>157.5888220649824</v>
+        <v>157.5888220649825</v>
       </c>
       <c r="L37" t="n">
-        <v>231.867312777577</v>
+        <v>231.8673127775771</v>
       </c>
       <c r="M37" t="n">
         <v>247.7627660915995</v>
       </c>
       <c r="N37" t="n">
-        <v>249.8084161454456</v>
+        <v>249.8084161454457</v>
       </c>
       <c r="O37" t="n">
         <v>210.220233340163</v>
       </c>
       <c r="P37" t="n">
-        <v>160.6252099925838</v>
+        <v>160.6252099925839</v>
       </c>
       <c r="Q37" t="n">
-        <v>55.05929892214689</v>
+        <v>55.05929892214692</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37627,22 +37627,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
-        <v>274.2960242312443</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>47.41024194023002</v>
+        <v>47.41024194023008</v>
       </c>
       <c r="K40" t="n">
-        <v>157.5888220649824</v>
+        <v>157.5888220649825</v>
       </c>
       <c r="L40" t="n">
-        <v>231.867312777577</v>
+        <v>231.8673127775771</v>
       </c>
       <c r="M40" t="n">
         <v>247.7627660915995</v>
       </c>
       <c r="N40" t="n">
-        <v>249.8084161454456</v>
+        <v>249.8084161454457</v>
       </c>
       <c r="O40" t="n">
         <v>210.220233340163</v>
       </c>
       <c r="P40" t="n">
-        <v>160.6252099925838</v>
+        <v>160.6252099925839</v>
       </c>
       <c r="Q40" t="n">
-        <v>55.05929892214689</v>
+        <v>55.05929892214692</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37858,22 +37858,22 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>432.0572943778175</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>592.1338044402481</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
         <v>427.9021712071395</v>
@@ -37882,7 +37882,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38098,13 +38098,13 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>37.76383318075158</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>303.8786972770459</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_25_23.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_25_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1098609.745274286</v>
+        <v>1104794.366897286</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1134222.401358594</v>
+        <v>1759984.410099419</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10769757.33220669</v>
+        <v>10513324.36052305</v>
       </c>
     </row>
     <row r="11">
@@ -661,10 +661,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>52.83391759428314</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -676,10 +676,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>50.67650313406757</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292584</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -718,7 +718,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -737,7 +737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498695</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -755,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851113</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247737</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734097352</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -822,16 +822,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>40.87152028304765</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -879,13 +879,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>54.45803047044561</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -898,10 +898,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>61.31988685654932</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -916,7 +916,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,7 +949,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>50.73003670622291</v>
       </c>
     </row>
     <row r="6">
@@ -992,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>72.08802744677315</v>
+        <v>72.08802744677224</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1138,7 +1138,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>326.9186139322096</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>282.3939120001628</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,22 +1186,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1229,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I9" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>72.08802744677315</v>
+        <v>72.08802744677224</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1375,22 +1375,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722596</v>
+        <v>98.55505812707976</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695531</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1463,13 +1463,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>134.4010792945512</v>
+        <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,16 +1496,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S12" t="n">
-        <v>117.0286782364134</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T12" t="n">
-        <v>188.3046392154443</v>
+        <v>190.7165703189231</v>
       </c>
       <c r="U12" t="n">
-        <v>225.7478006422472</v>
+        <v>225.7871683969286</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1527,16 +1527,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1584,7 +1584,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>15.31548816222134</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1596,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>34.55787220661633</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1606,10 +1606,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1621,13 +1621,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444138</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,19 +1657,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695349</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>252.1855930722028</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1700,13 +1700,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>134.4010792945512</v>
+        <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128547</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,16 +1733,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
-        <v>117.0286782364135</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T15" t="n">
-        <v>188.3046392154443</v>
+        <v>190.7165703189231</v>
       </c>
       <c r="U15" t="n">
-        <v>225.7478006422472</v>
+        <v>225.7871683969286</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1773,13 +1773,13 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>54.51165059784278</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1821,16 +1821,16 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>111.0026252282088</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695349</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1940,7 +1940,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2004,16 +2004,16 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>124.3175817853337</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>51.04722446792932</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2070,7 +2070,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2098,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2143,7 +2143,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174136</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2250,16 +2250,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>25.3869320253877</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>15.42917192680532</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2301,10 +2301,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2380,7 +2380,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174136</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>145.599875079479</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2484,10 +2484,10 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>101.6904320390162</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2526,10 +2526,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2541,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2569,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2721,13 +2721,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -2772,13 +2772,13 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>81.13915763550614</v>
       </c>
       <c r="X28" t="n">
-        <v>21.31870002049637</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2949,19 +2949,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>65.31126771337314</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -3003,22 +3003,22 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>67.87490579821855</v>
       </c>
     </row>
     <row r="32">
@@ -3046,7 +3046,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3094,7 +3094,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3186,13 +3186,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>44.0771948673512</v>
       </c>
       <c r="D34" t="n">
-        <v>6.503724722000931</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3240,7 +3240,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3423,25 +3423,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>65.31126771337246</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>136.6842090841046</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3480,19 +3480,19 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3520,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3660,10 +3660,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3672,13 +3672,13 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>117.1418750285555</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>83.82684322845101</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3723,13 +3723,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3909,13 +3909,13 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>66.11850518080828</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3951,22 +3951,22 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>170.4845588958727</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4134,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>30.18984604964871</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4152,7 +4152,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4185,13 +4185,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>65.31126771337257</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2029.572515263132</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="C2" t="n">
-        <v>1976.204921733553</v>
+        <v>1329.547110979147</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>1329.547110979147</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>943.7588583809031</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>532.7729535912956</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839473</v>
+        <v>117.7005034362921</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927146</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912091</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136268</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.33740552049</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794326</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2755.806928794326</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>2403.038273524212</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X2" t="n">
-        <v>2029.572515263132</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y2" t="n">
-        <v>2029.572515263132</v>
+        <v>1698.509627919559</v>
       </c>
     </row>
     <row r="3">
@@ -4385,19 +4385,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811085</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999815</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387302</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332748</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601598</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G3" t="n">
         <v>176.0213023927779</v>
@@ -4406,55 +4406,55 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218345</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228009</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031483</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158139</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992585</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.91239341064</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886743</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533343</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125859</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619339</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297194</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.76045543161</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199867</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471665</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266133</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501179</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>235.4482993600903</v>
+        <v>739.2385409879452</v>
       </c>
       <c r="C4" t="n">
-        <v>66.51211643218345</v>
+        <v>570.3023580600383</v>
       </c>
       <c r="D4" t="n">
-        <v>66.51211643218345</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E4" t="n">
-        <v>66.51211643218345</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F4" t="n">
-        <v>66.51211643218345</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962299</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372935</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596509</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588489</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886967</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068866</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596454</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181863</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R4" t="n">
-        <v>920.8870058181863</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S4" t="n">
-        <v>920.8870058181863</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T4" t="n">
-        <v>920.8870058181863</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U4" t="n">
-        <v>920.8870058181863</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V4" t="n">
-        <v>920.8870058181863</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W4" t="n">
-        <v>865.8788942318776</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="X4" t="n">
-        <v>637.8893433338602</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="Y4" t="n">
-        <v>417.0967641903301</v>
+        <v>920.8870058181849</v>
       </c>
     </row>
     <row r="5">
@@ -4543,10 +4543,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2038.144201386633</v>
+        <v>1986.901740067214</v>
       </c>
       <c r="C5" t="n">
-        <v>1976.204921733553</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="D5" t="n">
         <v>1617.939223126803</v>
@@ -4564,7 +4564,7 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
         <v>255.3912473912087</v>
@@ -4576,43 +4576,43 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794326</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450755</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W5" t="n">
-        <v>2424.744041450755</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="X5" t="n">
-        <v>2424.744041450755</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="Y5" t="n">
-        <v>2424.744041450755</v>
+        <v>2373.501580131336</v>
       </c>
     </row>
     <row r="6">
@@ -4622,70 +4622,70 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927784</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064586</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
         <v>1317.519490266131</v>
@@ -4716,61 +4716,61 @@
         <v>234.2149530574645</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962293</v>
+        <v>78.33486996962284</v>
       </c>
       <c r="K7" t="n">
-        <v>176.6457242372934</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L7" t="n">
-        <v>332.3555681596507</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588486</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886962</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O7" t="n">
-        <v>809.015235706886</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596446</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R7" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S7" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="T7" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="U7" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="V7" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="W7" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="X7" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="Y7" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181845</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1891.353293732297</v>
+        <v>1605.60199849331</v>
       </c>
       <c r="C8" t="n">
-        <v>1891.353293732297</v>
+        <v>1605.60199849331</v>
       </c>
       <c r="D8" t="n">
-        <v>1533.087595125546</v>
+        <v>1605.60199849331</v>
       </c>
       <c r="E8" t="n">
-        <v>1147.299342527302</v>
+        <v>1219.813745895066</v>
       </c>
       <c r="F8" t="n">
-        <v>736.3134377376946</v>
+        <v>808.8278411054584</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>393.7553909504549</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218345</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810562</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136267</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U8" t="n">
-        <v>2961.784676410104</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>2630.721789066533</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="W8" t="n">
-        <v>2277.953133796419</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="X8" t="n">
-        <v>2277.953133796419</v>
+        <v>2382.341170533244</v>
       </c>
       <c r="Y8" t="n">
-        <v>2277.953133796419</v>
+        <v>1992.201838557432</v>
       </c>
     </row>
     <row r="9">
@@ -4880,16 +4880,16 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218345</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228009</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158128</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4901,7 +4901,7 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q9" t="n">
         <v>2565.053542533341</v>
@@ -4950,64 +4950,64 @@
         <v>381.1049005553748</v>
       </c>
       <c r="F10" t="n">
-        <v>234.2149530574645</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218345</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218345</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218345</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962293</v>
+        <v>78.33486996962283</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372934</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L10" t="n">
-        <v>332.3555681596507</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588486</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886962</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O10" t="n">
-        <v>809.015235706886</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596446</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R10" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S10" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="T10" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="U10" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="V10" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="W10" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="X10" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="Y10" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181845</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551873</v>
+        <v>1285.591601078694</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611461</v>
+        <v>916.6290841382822</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004711</v>
+        <v>916.6290841382822</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>817.0785203735552</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>406.0926155839476</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362685</v>
+        <v>406.0926155839476</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797183</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111714</v>
+        <v>255.3912473912105</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>589.2106210810566</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694705</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398592</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492576</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474782</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466571</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>2788.565186649821</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852886</v>
+        <v>2435.796531379707</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591806</v>
+        <v>2062.330773118627</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615995</v>
+        <v>1672.191441142816</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>943.3991132778466</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C12" t="n">
-        <v>768.9460839967196</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D12" t="n">
-        <v>620.0116743354683</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F12" t="n">
-        <v>314.2396613568978</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G12" t="n">
-        <v>178.4809954028057</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797183</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797183</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756265</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756265</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L12" t="n">
-        <v>738.7889117913851</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M12" t="n">
-        <v>738.7889117913851</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>1366.386875345991</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O12" t="n">
-        <v>1918.296605585278</v>
+        <v>2096.912393410637</v>
       </c>
       <c r="P12" t="n">
-        <v>2341.919755080346</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R12" t="n">
-        <v>2553.061288060775</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S12" t="n">
-        <v>2434.850501963388</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T12" t="n">
-        <v>2244.643795685161</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
-        <v>2016.615714228345</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V12" t="n">
-        <v>1781.463605996603</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W12" t="n">
-        <v>1527.226249268401</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
-        <v>1319.374749062868</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y12" t="n">
-        <v>1111.614450297915</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>390.823249958218</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="C13" t="n">
-        <v>390.823249958218</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="D13" t="n">
-        <v>240.7066105458822</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="E13" t="n">
-        <v>240.7066105458822</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F13" t="n">
-        <v>93.81666304797183</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797183</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797183</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797183</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J13" t="n">
-        <v>140.7528025687995</v>
+        <v>78.33486996962282</v>
       </c>
       <c r="K13" t="n">
-        <v>296.7657364131321</v>
+        <v>176.6457242372931</v>
       </c>
       <c r="L13" t="n">
-        <v>526.3143760629332</v>
+        <v>332.3555681596503</v>
       </c>
       <c r="M13" t="n">
-        <v>771.5995144936165</v>
+        <v>499.7880494588479</v>
       </c>
       <c r="N13" t="n">
-        <v>1018.909846477608</v>
+        <v>671.0968864886953</v>
       </c>
       <c r="O13" t="n">
-        <v>1227.027877484369</v>
+        <v>809.0152357068849</v>
       </c>
       <c r="P13" t="n">
-        <v>1386.046835377027</v>
+        <v>907.9662384596435</v>
       </c>
       <c r="Q13" t="n">
-        <v>1440.555541309952</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="R13" t="n">
-        <v>1440.555541309952</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="S13" t="n">
-        <v>1440.555541309952</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="T13" t="n">
-        <v>1440.555541309952</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="U13" t="n">
-        <v>1151.48031465415</v>
+        <v>905.4168157553344</v>
       </c>
       <c r="V13" t="n">
-        <v>896.795826448263</v>
+        <v>650.7323275494475</v>
       </c>
       <c r="W13" t="n">
-        <v>607.3786564113025</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="X13" t="n">
-        <v>607.3786564113025</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="Y13" t="n">
-        <v>572.4717147884577</v>
+        <v>361.3151575124868</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797183</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075802</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014777</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355935</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694705</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398592</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>2994.542934265599</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>2739.810011970445</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>2366.344253709365</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>1976.204921733553</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>943.3991132778466</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C15" t="n">
-        <v>768.9460839967196</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D15" t="n">
-        <v>620.0116743354683</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F15" t="n">
-        <v>314.2396613568978</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G15" t="n">
-        <v>178.4809954028057</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797183</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797183</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797183</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797183</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L15" t="n">
-        <v>352.5519571452622</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M15" t="n">
-        <v>949.9304447718139</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.52840832642</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R15" t="n">
-        <v>2553.061288060775</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S15" t="n">
-        <v>2434.850501963388</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T15" t="n">
-        <v>2244.643795685161</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
-        <v>2016.615714228345</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V15" t="n">
-        <v>1781.463605996603</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W15" t="n">
-        <v>1527.226249268401</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
-        <v>1319.374749062868</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y15" t="n">
-        <v>1111.614450297915</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>408.925855915485</v>
+        <v>121.5743897633377</v>
       </c>
       <c r="C16" t="n">
-        <v>408.925855915485</v>
+        <v>121.5743897633377</v>
       </c>
       <c r="D16" t="n">
-        <v>408.925855915485</v>
+        <v>121.5743897633377</v>
       </c>
       <c r="E16" t="n">
-        <v>261.0127623330919</v>
+        <v>121.5743897633377</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>121.5743897633377</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797183</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797183</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797183</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J16" t="n">
-        <v>140.7528025687995</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K16" t="n">
-        <v>296.765736413132</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L16" t="n">
-        <v>526.3143760629331</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M16" t="n">
-        <v>771.5995144936164</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N16" t="n">
-        <v>1018.909846477608</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O16" t="n">
-        <v>1227.027877484369</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P16" t="n">
-        <v>1386.046835377027</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q16" t="n">
-        <v>1440.555541309952</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R16" t="n">
-        <v>1440.555541309952</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S16" t="n">
-        <v>1440.555541309952</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T16" t="n">
-        <v>1440.555541309952</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U16" t="n">
-        <v>1151.48031465415</v>
+        <v>631.7841389438285</v>
       </c>
       <c r="V16" t="n">
-        <v>1151.48031465415</v>
+        <v>631.7841389438285</v>
       </c>
       <c r="W16" t="n">
-        <v>1039.356450787272</v>
+        <v>342.3669689068678</v>
       </c>
       <c r="X16" t="n">
-        <v>811.3668998892548</v>
+        <v>342.3669689068678</v>
       </c>
       <c r="Y16" t="n">
-        <v>590.5743207457247</v>
+        <v>121.5743897633377</v>
       </c>
     </row>
     <row r="17">
@@ -5494,7 +5494,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5503,52 +5503,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362685</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123003</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,25 +5588,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756265</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>577.388077746847</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L18" t="n">
         <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589157</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143764</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>386.5860772677723</v>
+        <v>607.3786564113038</v>
       </c>
       <c r="C19" t="n">
-        <v>261.0127623330919</v>
+        <v>607.3786564113038</v>
       </c>
       <c r="D19" t="n">
-        <v>261.0127623330919</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E19" t="n">
-        <v>261.0127623330919</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F19" t="n">
         <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>140.7528025687995</v>
+        <v>140.7528025687997</v>
       </c>
       <c r="K19" t="n">
-        <v>296.7657364131321</v>
+        <v>296.7657364131323</v>
       </c>
       <c r="L19" t="n">
-        <v>526.3143760629332</v>
+        <v>526.3143760629337</v>
       </c>
       <c r="M19" t="n">
-        <v>771.5995144936165</v>
+        <v>771.5995144936172</v>
       </c>
       <c r="N19" t="n">
         <v>1018.909846477608</v>
       </c>
       <c r="O19" t="n">
-        <v>1227.027877484369</v>
+        <v>1227.02787748437</v>
       </c>
       <c r="P19" t="n">
-        <v>1386.046835377027</v>
+        <v>1386.046835377028</v>
       </c>
       <c r="Q19" t="n">
-        <v>1440.555541309952</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="R19" t="n">
-        <v>1440.555541309952</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="S19" t="n">
-        <v>1440.555541309952</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="T19" t="n">
-        <v>1440.555541309952</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="U19" t="n">
-        <v>1151.48031465415</v>
+        <v>1151.480314654151</v>
       </c>
       <c r="V19" t="n">
-        <v>896.795826448263</v>
+        <v>896.7958264482644</v>
       </c>
       <c r="W19" t="n">
-        <v>607.3786564113025</v>
+        <v>607.3786564113038</v>
       </c>
       <c r="X19" t="n">
-        <v>607.3786564113025</v>
+        <v>607.3786564113038</v>
       </c>
       <c r="Y19" t="n">
-        <v>386.5860772677723</v>
+        <v>607.3786564113038</v>
       </c>
     </row>
     <row r="20">
@@ -5734,67 +5734,67 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,25 +5825,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J21" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>280.8495004245697</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>776.1751066403286</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>266.349976228092</v>
+        <v>358.6844878334665</v>
       </c>
       <c r="C22" t="n">
-        <v>266.349976228092</v>
+        <v>358.6844878334665</v>
       </c>
       <c r="D22" t="n">
-        <v>266.349976228092</v>
+        <v>358.6844878334665</v>
       </c>
       <c r="E22" t="n">
-        <v>266.349976228092</v>
+        <v>358.6844878334665</v>
       </c>
       <c r="F22" t="n">
-        <v>119.4600287301817</v>
+        <v>358.6844878334665</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>191.4883885483464</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>140.7528025687996</v>
+        <v>140.7528025687997</v>
       </c>
       <c r="K22" t="n">
-        <v>296.7657364131322</v>
+        <v>296.7657364131323</v>
       </c>
       <c r="L22" t="n">
-        <v>526.3143760629334</v>
+        <v>526.3143760629337</v>
       </c>
       <c r="M22" t="n">
-        <v>771.5995144936169</v>
+        <v>771.5995144936172</v>
       </c>
       <c r="N22" t="n">
         <v>1018.909846477608</v>
       </c>
       <c r="O22" t="n">
-        <v>1227.027877484369</v>
+        <v>1227.02787748437</v>
       </c>
       <c r="P22" t="n">
-        <v>1386.046835377027</v>
+        <v>1386.046835377028</v>
       </c>
       <c r="Q22" t="n">
         <v>1440.555541309953</v>
       </c>
       <c r="R22" t="n">
-        <v>1440.555541309953</v>
+        <v>1373.509837562356</v>
       </c>
       <c r="S22" t="n">
-        <v>1257.700706964857</v>
+        <v>1373.509837562356</v>
       </c>
       <c r="T22" t="n">
-        <v>1038.099241987798</v>
+        <v>1373.509837562356</v>
       </c>
       <c r="U22" t="n">
-        <v>749.0240153319962</v>
+        <v>1084.434610906554</v>
       </c>
       <c r="V22" t="n">
-        <v>494.3395271261094</v>
+        <v>829.7501227006668</v>
       </c>
       <c r="W22" t="n">
-        <v>494.3395271261094</v>
+        <v>540.3329526637062</v>
       </c>
       <c r="X22" t="n">
-        <v>266.349976228092</v>
+        <v>540.3329526637062</v>
       </c>
       <c r="Y22" t="n">
-        <v>266.349976228092</v>
+        <v>540.3329526637062</v>
       </c>
     </row>
     <row r="23">
@@ -5980,19 +5980,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6001,37 +6001,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,16 +6062,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J24" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L24" t="n">
         <v>1072.713683962606</v>
@@ -6123,49 +6123,49 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>196.5342711681903</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="C25" t="n">
-        <v>196.5342711681903</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="D25" t="n">
-        <v>196.5342711681903</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="E25" t="n">
-        <v>93.81666304797187</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>140.7528025687996</v>
+        <v>140.7528025687997</v>
       </c>
       <c r="K25" t="n">
-        <v>296.7657364131322</v>
+        <v>296.7657364131323</v>
       </c>
       <c r="L25" t="n">
-        <v>526.3143760629334</v>
+        <v>526.3143760629337</v>
       </c>
       <c r="M25" t="n">
-        <v>771.5995144936169</v>
+        <v>771.5995144936172</v>
       </c>
       <c r="N25" t="n">
         <v>1018.909846477608</v>
       </c>
       <c r="O25" t="n">
-        <v>1227.027877484369</v>
+        <v>1227.02787748437</v>
       </c>
       <c r="P25" t="n">
-        <v>1386.046835377027</v>
+        <v>1386.046835377028</v>
       </c>
       <c r="Q25" t="n">
         <v>1440.555541309953</v>
@@ -6174,25 +6174,25 @@
         <v>1440.555541309953</v>
       </c>
       <c r="S25" t="n">
-        <v>1257.700706964857</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="T25" t="n">
-        <v>1257.700706964857</v>
+        <v>1220.954076332895</v>
       </c>
       <c r="U25" t="n">
-        <v>968.6254803090551</v>
+        <v>931.8788496770924</v>
       </c>
       <c r="V25" t="n">
-        <v>713.9409921031682</v>
+        <v>677.1943614712055</v>
       </c>
       <c r="W25" t="n">
-        <v>424.5238220662076</v>
+        <v>387.7771914342449</v>
       </c>
       <c r="X25" t="n">
-        <v>196.5342711681903</v>
+        <v>387.7771914342449</v>
       </c>
       <c r="Y25" t="n">
-        <v>196.5342711681903</v>
+        <v>387.7771914342449</v>
       </c>
     </row>
     <row r="26">
@@ -6205,7 +6205,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6214,7 +6214,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6223,13 +6223,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6238,10 +6238,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694708</v>
@@ -6253,13 +6253,13 @@
         <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
         <v>3820.749612123003</v>
@@ -6308,7 +6308,7 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L27" t="n">
         <v>1072.713683962606</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1016.58045691144</v>
+        <v>701.4712640439268</v>
       </c>
       <c r="C28" t="n">
-        <v>847.644273983533</v>
+        <v>532.5350811160199</v>
       </c>
       <c r="D28" t="n">
-        <v>697.5276345711973</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="E28" t="n">
-        <v>549.6145409888042</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G28" t="n">
         <v>235.5284942057738</v>
@@ -6420,16 +6420,16 @@
         <v>1440.555541309953</v>
       </c>
       <c r="V28" t="n">
-        <v>1440.555541309953</v>
+        <v>1185.871053104067</v>
       </c>
       <c r="W28" t="n">
-        <v>1440.555541309953</v>
+        <v>1103.912308017697</v>
       </c>
       <c r="X28" t="n">
-        <v>1419.02150088521</v>
+        <v>1103.912308017697</v>
       </c>
       <c r="Y28" t="n">
-        <v>1198.22892174168</v>
+        <v>883.1197288741665</v>
       </c>
     </row>
     <row r="29">
@@ -6457,37 +6457,37 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
         <v>4606.285157492578</v>
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,16 +6536,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J30" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L30" t="n">
         <v>1072.713683962606</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>159.7876405362276</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C31" t="n">
-        <v>159.7876405362276</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D31" t="n">
-        <v>159.7876405362276</v>
+        <v>388.6197041282754</v>
       </c>
       <c r="E31" t="n">
-        <v>159.7876405362276</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
         <v>140.7528025687997</v>
@@ -6651,22 +6651,22 @@
         <v>1440.555541309953</v>
       </c>
       <c r="T31" t="n">
-        <v>1220.954076332895</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="U31" t="n">
-        <v>931.8788496770924</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="V31" t="n">
-        <v>677.1943614712055</v>
+        <v>1185.871053104067</v>
       </c>
       <c r="W31" t="n">
-        <v>387.7771914342449</v>
+        <v>1185.871053104067</v>
       </c>
       <c r="X31" t="n">
-        <v>159.7876405362276</v>
+        <v>957.8815022060492</v>
       </c>
       <c r="Y31" t="n">
-        <v>159.7876405362276</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="32">
@@ -6682,31 +6682,31 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
         <v>2206.55866301478</v>
@@ -6721,28 +6721,28 @@
         <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,10 +6773,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
         <v>243.4633055756266</v>
@@ -6834,10 +6834,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>414.4721287421144</v>
+        <v>452.4251288889328</v>
       </c>
       <c r="C34" t="n">
-        <v>414.4721287421144</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="D34" t="n">
         <v>407.9027098310023</v>
@@ -6849,34 +6849,34 @@
         <v>261.0127623330919</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>140.7528025687997</v>
+        <v>140.7528025687996</v>
       </c>
       <c r="K34" t="n">
-        <v>296.7657364131323</v>
+        <v>296.7657364131322</v>
       </c>
       <c r="L34" t="n">
-        <v>526.3143760629337</v>
+        <v>526.3143760629334</v>
       </c>
       <c r="M34" t="n">
-        <v>771.5995144936172</v>
+        <v>771.5995144936169</v>
       </c>
       <c r="N34" t="n">
         <v>1018.909846477608</v>
       </c>
       <c r="O34" t="n">
-        <v>1227.02787748437</v>
+        <v>1227.027877484369</v>
       </c>
       <c r="P34" t="n">
-        <v>1386.046835377028</v>
+        <v>1386.046835377027</v>
       </c>
       <c r="Q34" t="n">
         <v>1440.555541309953</v>
@@ -6888,22 +6888,22 @@
         <v>1440.555541309953</v>
       </c>
       <c r="T34" t="n">
-        <v>1220.954076332895</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="U34" t="n">
-        <v>931.8788496770924</v>
+        <v>1151.480314654151</v>
       </c>
       <c r="V34" t="n">
-        <v>931.8788496770924</v>
+        <v>1151.480314654151</v>
       </c>
       <c r="W34" t="n">
-        <v>642.4616796401317</v>
+        <v>862.0631446171899</v>
       </c>
       <c r="X34" t="n">
-        <v>414.4721287421144</v>
+        <v>634.0735937191725</v>
       </c>
       <c r="Y34" t="n">
-        <v>414.4721287421144</v>
+        <v>634.0735937191725</v>
       </c>
     </row>
     <row r="35">
@@ -6928,25 +6928,25 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
         <v>2950.898526355937</v>
@@ -6955,10 +6955,10 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -7013,25 +7013,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>589.1422692637307</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>818.5130323591247</v>
+        <v>159.7876405362269</v>
       </c>
       <c r="C37" t="n">
-        <v>818.5130323591247</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="D37" t="n">
-        <v>668.396392946789</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="E37" t="n">
-        <v>520.4832993643959</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F37" t="n">
-        <v>373.5933518664855</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7095,25 +7095,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>140.7528025687997</v>
+        <v>140.7528025687996</v>
       </c>
       <c r="K37" t="n">
-        <v>296.7657364131323</v>
+        <v>296.7657364131322</v>
       </c>
       <c r="L37" t="n">
-        <v>526.3143760629337</v>
+        <v>526.3143760629334</v>
       </c>
       <c r="M37" t="n">
-        <v>771.5995144936172</v>
+        <v>771.5995144936169</v>
       </c>
       <c r="N37" t="n">
         <v>1018.909846477608</v>
       </c>
       <c r="O37" t="n">
-        <v>1227.02787748437</v>
+        <v>1227.027877484369</v>
       </c>
       <c r="P37" t="n">
-        <v>1386.046835377028</v>
+        <v>1386.046835377027</v>
       </c>
       <c r="Q37" t="n">
         <v>1440.555541309953</v>
@@ -7125,22 +7125,22 @@
         <v>1440.555541309953</v>
       </c>
       <c r="T37" t="n">
-        <v>1220.954076332895</v>
+        <v>1220.954076332894</v>
       </c>
       <c r="U37" t="n">
-        <v>1220.954076332895</v>
+        <v>931.8788496770917</v>
       </c>
       <c r="V37" t="n">
-        <v>1220.954076332895</v>
+        <v>677.1943614712048</v>
       </c>
       <c r="W37" t="n">
-        <v>1220.954076332895</v>
+        <v>387.7771914342442</v>
       </c>
       <c r="X37" t="n">
-        <v>1220.954076332895</v>
+        <v>159.7876405362269</v>
       </c>
       <c r="Y37" t="n">
-        <v>1000.161497189364</v>
+        <v>159.7876405362269</v>
       </c>
     </row>
     <row r="38">
@@ -7159,25 +7159,25 @@
         <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075794</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332386</v>
@@ -7192,19 +7192,19 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U38" t="n">
         <v>4151.812499466572</v>
@@ -7247,25 +7247,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>521.049719782364</v>
+        <v>262.7528459758788</v>
       </c>
       <c r="C40" t="n">
-        <v>521.049719782364</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="D40" t="n">
-        <v>521.049719782364</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="E40" t="n">
-        <v>521.049719782364</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
-        <v>140.7528025687997</v>
+        <v>140.7528025687996</v>
       </c>
       <c r="K40" t="n">
-        <v>296.7657364131323</v>
+        <v>296.7657364131322</v>
       </c>
       <c r="L40" t="n">
-        <v>526.3143760629337</v>
+        <v>526.3143760629334</v>
       </c>
       <c r="M40" t="n">
-        <v>771.5995144936172</v>
+        <v>771.5995144936169</v>
       </c>
       <c r="N40" t="n">
         <v>1018.909846477608</v>
       </c>
       <c r="O40" t="n">
-        <v>1227.02787748437</v>
+        <v>1227.027877484369</v>
       </c>
       <c r="P40" t="n">
-        <v>1386.046835377028</v>
+        <v>1386.046835377027</v>
       </c>
       <c r="Q40" t="n">
         <v>1440.555541309953</v>
       </c>
       <c r="R40" t="n">
-        <v>1440.555541309953</v>
+        <v>1373.509837562355</v>
       </c>
       <c r="S40" t="n">
-        <v>1440.555541309953</v>
+        <v>1288.836258543718</v>
       </c>
       <c r="T40" t="n">
-        <v>1440.555541309953</v>
+        <v>1069.234793566659</v>
       </c>
       <c r="U40" t="n">
-        <v>1151.480314654151</v>
+        <v>780.1595669108567</v>
       </c>
       <c r="V40" t="n">
-        <v>1151.480314654151</v>
+        <v>780.1595669108567</v>
       </c>
       <c r="W40" t="n">
-        <v>1151.480314654151</v>
+        <v>490.7423968738961</v>
       </c>
       <c r="X40" t="n">
-        <v>923.4907637561339</v>
+        <v>262.7528459758788</v>
       </c>
       <c r="Y40" t="n">
-        <v>702.6981846126038</v>
+        <v>262.7528459758788</v>
       </c>
     </row>
     <row r="41">
@@ -7402,22 +7402,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
         <v>2206.558663014778</v>
@@ -7429,34 +7429,34 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7484,34 +7484,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>449.2048105731875</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="C43" t="n">
-        <v>449.2048105731875</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="D43" t="n">
-        <v>449.2048105731875</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="E43" t="n">
-        <v>449.2048105731875</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F43" t="n">
-        <v>302.3148630752771</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
         <v>140.7528025687996</v>
@@ -7599,22 +7599,22 @@
         <v>1440.555541309953</v>
       </c>
       <c r="T43" t="n">
-        <v>1220.954076332894</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="U43" t="n">
-        <v>931.8788496770917</v>
+        <v>1268.348916162607</v>
       </c>
       <c r="V43" t="n">
-        <v>677.1943614712048</v>
+        <v>1013.66442795672</v>
       </c>
       <c r="W43" t="n">
-        <v>677.1943614712048</v>
+        <v>724.247257919759</v>
       </c>
       <c r="X43" t="n">
-        <v>449.2048105731875</v>
+        <v>496.2577070217417</v>
       </c>
       <c r="Y43" t="n">
-        <v>449.2048105731875</v>
+        <v>275.4651278782115</v>
       </c>
     </row>
     <row r="44">
@@ -7639,16 +7639,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
@@ -7724,22 +7724,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>266.0232881953179</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="C46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="D46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="E46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7833,25 +7833,25 @@
         <v>1440.555541309953</v>
       </c>
       <c r="S46" t="n">
-        <v>1440.555541309953</v>
+        <v>1374.584563821698</v>
       </c>
       <c r="T46" t="n">
-        <v>1440.555541309953</v>
+        <v>1154.983098844639</v>
       </c>
       <c r="U46" t="n">
-        <v>1440.555541309953</v>
+        <v>865.9078721888367</v>
       </c>
       <c r="V46" t="n">
-        <v>1185.871053104066</v>
+        <v>611.2233839829498</v>
       </c>
       <c r="W46" t="n">
-        <v>896.4538830671052</v>
+        <v>321.8062139459892</v>
       </c>
       <c r="X46" t="n">
-        <v>668.4643321690878</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="Y46" t="n">
-        <v>447.6717530255577</v>
+        <v>93.81666304797187</v>
       </c>
     </row>
   </sheetData>
@@ -23263,16 +23263,16 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>2.216893335571513e-12</v>
+        <v>283.375311945182</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23308,13 +23308,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856555</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.3752467101217</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>270.8963500433915</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>184.0267811454785</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23494,10 +23494,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23545,19 +23545,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>1.84741111297626e-12</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>97.0553756452102</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23661,19 +23661,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>111.5141576611854</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856556</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012171</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23715,10 +23715,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>175.5203731083822</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23782,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>1.818989403545856e-12</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23892,16 +23892,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>42.92923931329418</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>97.56824855028304</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23910,7 +23910,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856555</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -23958,7 +23958,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24138,16 +24138,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>140.1372062668812</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>124.8655409194185</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24189,10 +24189,10 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>34.23210510245826</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24372,10 +24372,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>44.74353060755294</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -24384,7 +24384,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24609,19 +24609,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -24660,13 +24660,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>205.3838407010849</v>
       </c>
       <c r="X28" t="n">
-        <v>204.3909553685408</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24837,19 +24837,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>80.1097803095581</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -24858,7 +24858,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>150.7097475538762</v>
       </c>
     </row>
     <row r="32">
@@ -25074,13 +25074,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>123.1696262312766</v>
       </c>
       <c r="D34" t="n">
-        <v>142.1117482962114</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25095,7 +25095,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>101.9355533852554</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>28.83992920816425</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -25368,19 +25368,19 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25408,7 +25408,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25548,10 +25548,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25560,16 +25560,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>28.27917299437574</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>97.19944277319358</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25611,13 +25611,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25797,13 +25797,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>99.40563311146056</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25839,22 +25839,22 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>115.6999154933715</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26022,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>137.0569750489791</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26040,7 +26040,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26073,13 +26073,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>115.715018288272</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>920300.3688706551</v>
+        <v>773246.2968165614</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>920300.3688706551</v>
+        <v>773246.2968165615</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>920300.3688706551</v>
+        <v>920300.3688706552</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>920300.3688706551</v>
+        <v>920300.3688706552</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>920300.3688706551</v>
+        <v>920300.368870655</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>920300.3688706553</v>
+        <v>920300.3688706552</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>920300.3688706551</v>
+        <v>920300.3688706552</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>920300.3688706552</v>
+        <v>920300.3688706551</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>920300.3688706553</v>
+        <v>920300.3688706551</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>920300.3688706553</v>
+        <v>920300.3688706551</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>920300.3688706552</v>
+        <v>920300.3688706551</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>920300.3688706552</v>
+        <v>920300.3688706551</v>
       </c>
     </row>
   </sheetData>
@@ -26316,28 +26316,28 @@
         <v>472099.0176719631</v>
       </c>
       <c r="C2" t="n">
-        <v>472099.0176719631</v>
+        <v>472099.017671963</v>
       </c>
       <c r="D2" t="n">
         <v>472099.017671963</v>
       </c>
       <c r="E2" t="n">
+        <v>378397.1239740619</v>
+      </c>
+      <c r="F2" t="n">
+        <v>378397.1239740619</v>
+      </c>
+      <c r="G2" t="n">
+        <v>450359.7549792567</v>
+      </c>
+      <c r="H2" t="n">
         <v>450359.7549792565</v>
       </c>
-      <c r="F2" t="n">
-        <v>450359.7549792566</v>
-      </c>
-      <c r="G2" t="n">
-        <v>450359.7549792565</v>
-      </c>
-      <c r="H2" t="n">
-        <v>450359.7549792568</v>
-      </c>
       <c r="I2" t="n">
-        <v>450359.7549792566</v>
+        <v>450359.7549792567</v>
       </c>
       <c r="J2" t="n">
-        <v>450359.7549792568</v>
+        <v>450359.7549792567</v>
       </c>
       <c r="K2" t="n">
         <v>450359.7549792567</v>
@@ -26349,10 +26349,10 @@
         <v>450359.7549792567</v>
       </c>
       <c r="N2" t="n">
-        <v>450359.7549792568</v>
+        <v>450359.7549792567</v>
       </c>
       <c r="O2" t="n">
-        <v>450359.7549792567</v>
+        <v>450359.7549792565</v>
       </c>
       <c r="P2" t="n">
         <v>450359.7549792567</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727594</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,22 +26374,22 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073545</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>3.594527697714511e-10</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>309843.0334598204</v>
       </c>
       <c r="H3" t="n">
-        <v>1.22694927995326e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972778</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,16 +26398,16 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551156</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>82135.83059545144</v>
       </c>
       <c r="P3" t="n">
-        <v>1.074904503184371e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26417,40 +26417,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.7441040524</v>
+        <v>93596.74410405254</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405246</v>
+        <v>93596.74410405257</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405246</v>
+        <v>93596.74410405257</v>
       </c>
       <c r="E4" t="n">
-        <v>761.388208683545</v>
+        <v>584.6469890061228</v>
       </c>
       <c r="F4" t="n">
-        <v>761.3882086835449</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="G4" t="n">
+        <v>761.3882086835455</v>
+      </c>
+      <c r="H4" t="n">
+        <v>761.3882086835455</v>
+      </c>
+      <c r="I4" t="n">
+        <v>761.3882086835455</v>
+      </c>
+      <c r="J4" t="n">
+        <v>761.3882086835455</v>
+      </c>
+      <c r="K4" t="n">
+        <v>761.3882086835455</v>
+      </c>
+      <c r="L4" t="n">
         <v>761.3882086835451</v>
       </c>
-      <c r="H4" t="n">
+      <c r="M4" t="n">
         <v>761.3882086835451</v>
-      </c>
-      <c r="I4" t="n">
-        <v>761.3882086835451</v>
-      </c>
-      <c r="J4" t="n">
-        <v>761.3882086835454</v>
-      </c>
-      <c r="K4" t="n">
-        <v>761.3882086835453</v>
-      </c>
-      <c r="L4" t="n">
-        <v>761.3882086835454</v>
-      </c>
-      <c r="M4" t="n">
-        <v>761.3882086835454</v>
       </c>
       <c r="N4" t="n">
         <v>761.3882086835451</v>
@@ -26478,10 +26478,10 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239071</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239071</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="G5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1058176.412721076</v>
+        <v>-1058176.412721075</v>
       </c>
       <c r="C6" t="n">
-        <v>270568.3330065177</v>
+        <v>270568.3330065174</v>
       </c>
       <c r="D6" t="n">
-        <v>270568.3330065172</v>
+        <v>270568.3330065171</v>
       </c>
       <c r="E6" t="n">
-        <v>22118.18980484584</v>
+        <v>303098.7368858457</v>
       </c>
       <c r="F6" t="n">
-        <v>347530.6516122007</v>
+        <v>303098.7368858452</v>
       </c>
       <c r="G6" t="n">
-        <v>347530.6516122003</v>
+        <v>38538.28495339898</v>
       </c>
       <c r="H6" t="n">
-        <v>347530.6516122005</v>
+        <v>348381.3184132194</v>
       </c>
       <c r="I6" t="n">
-        <v>347530.6516122005</v>
+        <v>348381.3184132195</v>
       </c>
       <c r="J6" t="n">
-        <v>129999.4492149228</v>
+        <v>130850.116015942</v>
       </c>
       <c r="K6" t="n">
-        <v>347530.6516122005</v>
+        <v>348381.3184132195</v>
       </c>
       <c r="L6" t="n">
-        <v>347530.6516122006</v>
+        <v>348381.3184132199</v>
       </c>
       <c r="M6" t="n">
-        <v>262475.623676689</v>
+        <v>348381.3184132195</v>
       </c>
       <c r="N6" t="n">
-        <v>347530.6516122007</v>
+        <v>348381.3184132195</v>
       </c>
       <c r="O6" t="n">
-        <v>347530.6516122008</v>
+        <v>266245.4878177679</v>
       </c>
       <c r="P6" t="n">
-        <v>347530.6516122004</v>
+        <v>348381.3184132195</v>
       </c>
     </row>
   </sheetData>
@@ -26737,19 +26737,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
-        <v>1367.975500341674</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="F3" t="n">
-        <v>1367.975500341673</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="G3" t="n">
         <v>1367.975500341674</v>
@@ -26789,37 +26789,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
+        <v>1172.708288099649</v>
+      </c>
+      <c r="L4" t="n">
         <v>1172.708288099648</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,13 +26968,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.198799748375</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>278.1987997483759</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26983,7 +26983,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,22 +27020,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973548</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="H4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022933</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,16 +27044,16 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973546</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="P4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,16 +27266,16 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973548</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="P4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27381,10 +27381,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>312.4389741767244</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27396,10 +27396,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>243.9312612532529</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27438,7 +27438,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27457,7 +27457,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-2.188471626141109e-12</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27542,22 +27542,22 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>107.7439527351647</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983806</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004727</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -27599,13 +27599,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>232.0649678661454</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27618,10 +27618,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>303.9530049144582</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27684,7 +27684,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>335.5079019498307</v>
       </c>
     </row>
     <row r="6">
@@ -27742,7 +27742,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>107.7439527351641</v>
+        <v>107.7439527351651</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27794,7 +27794,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -27858,7 +27858,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27867,10 +27867,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>84.00311172124384</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>12.21385238715766</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27906,22 +27906,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>107.7439527351641</v>
+        <v>107.7439527351651</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28031,7 +28031,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681601</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
-        <v>44.8670377284467</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974801</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953991</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003814</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623197</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574999</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095028</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099063</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746417</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781693</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563571</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806958</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
-        <v>19.17787942451122</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.350480948934528</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502568</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798533</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752262</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353159</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138799</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233479</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837928</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970253</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.610358400293</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987489</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238319</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898505</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1542136840462216</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,46 +31199,46 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430539</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742022</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
-        <v>138.9375967297391</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702026</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098822</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316434</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883117</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086003</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802171</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.5562817895882</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712221</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553038</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112301</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003812</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781691</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R5" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T5" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,46 +31357,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970251</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J8" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003812</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781691</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R8" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T8" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,46 +31594,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138789</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970251</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H10" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P10" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H11" t="n">
-        <v>56.3207199713534</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817574</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162559</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175673</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159424</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460026</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236506</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669222</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420754</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473071</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071783</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437242</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214697</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q12" t="n">
-        <v>353.2560498238282</v>
+        <v>299.2156706987499</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869274</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417314</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>110.9181446670478</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T13" t="n">
-        <v>10.54013910099322</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348432</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135338</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663281</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817573</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162558</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175671</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159422</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460025</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236505</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.873223366922</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043724</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078744</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659448</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521099</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>399.9031616963292</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862118</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071782</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437241</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214697</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742437</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869272</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355177</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588152</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392044</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106787</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920056</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417313</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>110.9181446670478</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532765</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T16" t="n">
-        <v>10.54013910099322</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H17" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,31 +32305,31 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071783</v>
+        <v>465.7451325200299</v>
       </c>
       <c r="O18" t="n">
-        <v>400.5469039565771</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742437</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32554,19 +32554,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>175.6052721551096</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O21" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P22" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H23" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32791,19 +32791,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O24" t="n">
-        <v>400.5469039565762</v>
+        <v>400.5469039565758</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P25" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,40 +32937,40 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H26" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S26" t="n">
         <v>125.3175546292901</v>
@@ -32979,7 +32979,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33028,19 +33028,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O27" t="n">
-        <v>400.5469039565762</v>
+        <v>400.5469039565758</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33052,7 +33052,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
@@ -33095,13 +33095,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H28" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J28" t="n">
         <v>174.4056633796262</v>
@@ -33119,7 +33119,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P28" t="n">
         <v>298.3532140417315</v>
@@ -33131,7 +33131,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
@@ -33174,40 +33174,40 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H29" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S29" t="n">
         <v>125.3175546292901</v>
@@ -33216,7 +33216,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33265,19 +33265,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O30" t="n">
-        <v>400.5469039565762</v>
+        <v>400.5469039565758</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33289,7 +33289,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
@@ -33332,13 +33332,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H31" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J31" t="n">
         <v>174.4056633796262</v>
@@ -33356,7 +33356,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P31" t="n">
         <v>298.3532140417315</v>
@@ -33368,7 +33368,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
@@ -33502,16 +33502,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
         <v>400.5469039565762</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,34 +33727,34 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,31 +33964,31 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34207,34 +34207,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34444,7 +34444,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34456,13 +34456,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>446.0127311990643</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687128</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554008</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923325</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302272</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129119</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882196</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193722</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037198</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222495</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597725</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609569</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340057</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013295</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004595</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525809</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859627</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127273</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034297</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K4" t="n">
-        <v>99.30389319966719</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286439</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M4" t="n">
-        <v>169.1237184840384</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230785</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O4" t="n">
-        <v>139.3114638567575</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106947</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.05128016014231</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882193</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P5" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>11.94217529034292</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K7" t="n">
-        <v>99.3038931996671</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L7" t="n">
-        <v>157.2826706286438</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M7" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N7" t="n">
-        <v>173.0392293230784</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O7" t="n">
-        <v>139.3114638567574</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P7" t="n">
-        <v>99.95050783106939</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q7" t="n">
-        <v>13.05128016014223</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882193</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P8" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340047</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.94217529034292</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K10" t="n">
-        <v>99.3038931996671</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L10" t="n">
-        <v>157.2826706286438</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M10" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N10" t="n">
-        <v>173.0392293230784</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O10" t="n">
-        <v>139.3114638567574</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106939</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.05128016014223</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317227</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396419</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367769</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902946</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243158</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924726</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754087</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674329</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N12" t="n">
-        <v>633.937336923845</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992797</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071394</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q12" t="n">
-        <v>213.2742757378066</v>
+        <v>159.2338966127284</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>47.41024194022999</v>
+        <v>11.94217529034283</v>
       </c>
       <c r="K13" t="n">
-        <v>157.5888220649824</v>
+        <v>99.30389319966696</v>
       </c>
       <c r="L13" t="n">
-        <v>231.867312777577</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M13" t="n">
-        <v>247.7627660915994</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N13" t="n">
-        <v>249.8084161454456</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O13" t="n">
-        <v>210.2202333401628</v>
+        <v>139.3114638567572</v>
       </c>
       <c r="P13" t="n">
-        <v>160.6252099925838</v>
+        <v>99.95050783106922</v>
       </c>
       <c r="Q13" t="n">
-        <v>55.05929892214687</v>
+        <v>13.05128016014211</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317199</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396418</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367768</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462685</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902944</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193513</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243157</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683809</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924725</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902403</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>261.348781916455</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641936</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238449</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992796</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071394</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>47.41024194022997</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K16" t="n">
-        <v>157.5888220649823</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L16" t="n">
-        <v>231.8673127775769</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M16" t="n">
-        <v>247.7627660915993</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N16" t="n">
-        <v>249.8084161454455</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O16" t="n">
-        <v>210.2202333401628</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P16" t="n">
-        <v>160.6252099925837</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q16" t="n">
-        <v>55.05929892214681</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396419</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924726</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,22 +35962,22 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674329</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641936</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N18" t="n">
-        <v>633.937336923845</v>
+        <v>334.4034204366966</v>
       </c>
       <c r="O18" t="n">
-        <v>257.9506595121327</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>47.41024194022999</v>
+        <v>47.41024194023011</v>
       </c>
       <c r="K19" t="n">
-        <v>157.5888220649824</v>
+        <v>157.5888220649825</v>
       </c>
       <c r="L19" t="n">
-        <v>231.867312777577</v>
+        <v>231.8673127775771</v>
       </c>
       <c r="M19" t="n">
-        <v>247.7627660915994</v>
+        <v>247.7627660915996</v>
       </c>
       <c r="N19" t="n">
-        <v>249.8084161454456</v>
+        <v>249.8084161454457</v>
       </c>
       <c r="O19" t="n">
-        <v>210.2202333401628</v>
+        <v>210.2202333401631</v>
       </c>
       <c r="P19" t="n">
-        <v>160.6252099925838</v>
+        <v>160.6252099925839</v>
       </c>
       <c r="Q19" t="n">
-        <v>55.05929892214687</v>
+        <v>55.05929892214695</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,22 +36199,22 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>37.76383318075059</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O21" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>47.41024194023002</v>
+        <v>47.41024194023011</v>
       </c>
       <c r="K22" t="n">
-        <v>157.5888220649824</v>
+        <v>157.5888220649825</v>
       </c>
       <c r="L22" t="n">
-        <v>231.867312777577</v>
+        <v>231.8673127775771</v>
       </c>
       <c r="M22" t="n">
-        <v>247.7627660915995</v>
+        <v>247.7627660915996</v>
       </c>
       <c r="N22" t="n">
-        <v>249.8084161454456</v>
+        <v>249.8084161454457</v>
       </c>
       <c r="O22" t="n">
-        <v>210.220233340163</v>
+        <v>210.2202333401631</v>
       </c>
       <c r="P22" t="n">
-        <v>160.6252099925838</v>
+        <v>160.6252099925839</v>
       </c>
       <c r="Q22" t="n">
-        <v>55.05929892214689</v>
+        <v>55.05929892214695</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J23" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,22 +36436,22 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O24" t="n">
-        <v>257.9506595121318</v>
+        <v>257.9506595121313</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>47.41024194023002</v>
+        <v>47.41024194023011</v>
       </c>
       <c r="K25" t="n">
-        <v>157.5888220649824</v>
+        <v>157.5888220649825</v>
       </c>
       <c r="L25" t="n">
-        <v>231.867312777577</v>
+        <v>231.8673127775771</v>
       </c>
       <c r="M25" t="n">
-        <v>247.7627660915995</v>
+        <v>247.7627660915996</v>
       </c>
       <c r="N25" t="n">
-        <v>249.8084161454456</v>
+        <v>249.8084161454457</v>
       </c>
       <c r="O25" t="n">
-        <v>210.220233340163</v>
+        <v>210.2202333401631</v>
       </c>
       <c r="P25" t="n">
-        <v>160.6252099925838</v>
+        <v>160.6252099925839</v>
       </c>
       <c r="Q25" t="n">
-        <v>55.05929892214689</v>
+        <v>55.05929892214695</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36591,31 +36591,31 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J26" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P26" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R26" t="n">
         <v>129.8660843902405</v>
@@ -36673,22 +36673,22 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O27" t="n">
-        <v>257.9506595121318</v>
+        <v>257.9506595121313</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36752,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>47.41024194023008</v>
+        <v>47.41024194023011</v>
       </c>
       <c r="K28" t="n">
         <v>157.5888220649825</v>
@@ -36761,19 +36761,19 @@
         <v>231.8673127775771</v>
       </c>
       <c r="M28" t="n">
-        <v>247.7627660915995</v>
+        <v>247.7627660915996</v>
       </c>
       <c r="N28" t="n">
         <v>249.8084161454457</v>
       </c>
       <c r="O28" t="n">
-        <v>210.220233340163</v>
+        <v>210.2202333401631</v>
       </c>
       <c r="P28" t="n">
         <v>160.6252099925839</v>
       </c>
       <c r="Q28" t="n">
-        <v>55.05929892214692</v>
+        <v>55.05929892214695</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36828,31 +36828,31 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J29" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P29" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R29" t="n">
         <v>129.8660843902405</v>
@@ -36910,22 +36910,22 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O30" t="n">
-        <v>257.9506595121318</v>
+        <v>257.9506595121313</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36989,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>47.41024194023008</v>
+        <v>47.41024194023011</v>
       </c>
       <c r="K31" t="n">
         <v>157.5888220649825</v>
@@ -36998,19 +36998,19 @@
         <v>231.8673127775771</v>
       </c>
       <c r="M31" t="n">
-        <v>247.7627660915995</v>
+        <v>247.7627660915996</v>
       </c>
       <c r="N31" t="n">
         <v>249.8084161454457</v>
       </c>
       <c r="O31" t="n">
-        <v>210.220233340163</v>
+        <v>210.2202333401631</v>
       </c>
       <c r="P31" t="n">
         <v>160.6252099925839</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.05929892214692</v>
+        <v>55.05929892214695</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37153,13 +37153,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
         <v>257.9506595121318</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>47.41024194023008</v>
+        <v>47.41024194023002</v>
       </c>
       <c r="K34" t="n">
-        <v>157.5888220649825</v>
+        <v>157.5888220649824</v>
       </c>
       <c r="L34" t="n">
-        <v>231.8673127775771</v>
+        <v>231.867312777577</v>
       </c>
       <c r="M34" t="n">
         <v>247.7627660915995</v>
       </c>
       <c r="N34" t="n">
-        <v>249.8084161454457</v>
+        <v>249.8084161454456</v>
       </c>
       <c r="O34" t="n">
         <v>210.220233340163</v>
       </c>
       <c r="P34" t="n">
-        <v>160.6252099925839</v>
+        <v>160.6252099925838</v>
       </c>
       <c r="Q34" t="n">
-        <v>55.05929892214692</v>
+        <v>55.05929892214689</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,28 +37381,28 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>47.41024194023008</v>
+        <v>47.41024194023002</v>
       </c>
       <c r="K37" t="n">
-        <v>157.5888220649825</v>
+        <v>157.5888220649824</v>
       </c>
       <c r="L37" t="n">
-        <v>231.8673127775771</v>
+        <v>231.867312777577</v>
       </c>
       <c r="M37" t="n">
         <v>247.7627660915995</v>
       </c>
       <c r="N37" t="n">
-        <v>249.8084161454457</v>
+        <v>249.8084161454456</v>
       </c>
       <c r="O37" t="n">
         <v>210.220233340163</v>
       </c>
       <c r="P37" t="n">
-        <v>160.6252099925839</v>
+        <v>160.6252099925838</v>
       </c>
       <c r="Q37" t="n">
-        <v>55.05929892214692</v>
+        <v>55.05929892214689</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,16 +37627,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>47.41024194023008</v>
+        <v>47.41024194023002</v>
       </c>
       <c r="K40" t="n">
-        <v>157.5888220649825</v>
+        <v>157.5888220649824</v>
       </c>
       <c r="L40" t="n">
-        <v>231.8673127775771</v>
+        <v>231.867312777577</v>
       </c>
       <c r="M40" t="n">
         <v>247.7627660915995</v>
       </c>
       <c r="N40" t="n">
-        <v>249.8084161454457</v>
+        <v>249.8084161454456</v>
       </c>
       <c r="O40" t="n">
         <v>210.220233340163</v>
       </c>
       <c r="P40" t="n">
-        <v>160.6252099925839</v>
+        <v>160.6252099925838</v>
       </c>
       <c r="Q40" t="n">
-        <v>55.05929892214692</v>
+        <v>55.05929892214689</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37855,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38104,13 +38104,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>303.8786972770459</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
